--- a/tests/Feature/config/fond_realistic.xlsx
+++ b/tests/Feature/config/fond_realistic.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="private" sheetId="1" r:id="rId4"/>
     <sheet name="Income" sheetId="2" r:id="rId5"/>
-    <sheet name="fond privat" sheetId="3" r:id="rId6"/>
+    <sheet name="Kron privat" sheetId="3" r:id="rId6"/>
     <sheet name="Statistics" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="116">
   <si>
     <t>private</t>
   </si>
@@ -146,239 +146,242 @@
     <t xml:space="preserve">Using previous value: 0Using previous value: 0 Asset rule </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule </t>
+    <t xml:space="preserve">Using previous value: 0 Asset rule </t>
   </si>
   <si>
     <t xml:space="preserve">IncomeNormal: 480000Normal: 180000 Asset rule </t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 504000Using previous value: 189000 Asset rule </t>
+    <t xml:space="preserve">Using previous value: 0Using previous value: 189000 Asset rule </t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 529200Using previous value: 198450 Asset rule </t>
+    <t xml:space="preserve">Using previous value: 0Using previous value: 198450 Asset rule </t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 555660Using previous value: 208373 Asset rule </t>
+    <t xml:space="preserve">Using previous value: 0Using previous value: 208373 Asset rule </t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 583443Using previous value: 218791 Asset rule </t>
+    <t xml:space="preserve">Using previous value: 0Using previous value: 218791 Asset rule </t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 612615Using previous value: 229731 Asset rule </t>
+    <t xml:space="preserve">Using previous value: 0Using previous value: 229731 Asset rule </t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 643246Using previous value: 241217 Asset rule </t>
+    <t xml:space="preserve">Using previous value: 0Using previous value: 241217 Asset rule </t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 675408Using previous value: 253278 Asset rule </t>
+    <t xml:space="preserve">Using previous value: 0Using previous value: 253278 Asset rule </t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 709179Using previous value: 265942 Asset rule </t>
+    <t xml:space="preserve">Using previous value: 0Using previous value: 265942 Asset rule </t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 744638Using previous value: 279239 Asset rule </t>
+    <t xml:space="preserve">Using previous value: 0Using previous value: 279239 Asset rule </t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 781869Using previous value: 293201 Asset rule </t>
+    <t xml:space="preserve">Using previous value: 0Using previous value: 293201 Asset rule </t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 820963Using previous value: 307861 Asset rule </t>
+    <t xml:space="preserve">Using previous value: 0Using previous value: 307861 Asset rule </t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 862011Using previous value: 323254 Asset rule </t>
+    <t xml:space="preserve">Using previous value: 0Using previous value: 323254 Asset rule </t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 905112Using previous value: 339417 Asset rule </t>
+    <t xml:space="preserve">Using previous value: 0Using previous value: 339417 Asset rule </t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 950367Using previous value: 356388 Asset rule </t>
+    <t xml:space="preserve">Using previous value: 0Using previous value: 356388 Asset rule </t>
   </si>
   <si>
     <t xml:space="preserve">Pensioned, no more salary from hereFixed number override = detected: 0Using previous value: 374207 Asset rule </t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 392917 Asset rule </t>
+    <t xml:space="preserve">Using previous value: 0Using previous value: 392917 Asset rule </t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 412563 Asset rule </t>
+    <t xml:space="preserve">Using previous value: 0Using previous value: 412563 Asset rule </t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 433191 Asset rule </t>
+    <t xml:space="preserve">Using previous value: 0Using previous value: 433191 Asset rule </t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 454851 Asset rule </t>
+    <t xml:space="preserve">Using previous value: 0Using previous value: 454851 Asset rule </t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 477594 Asset rule </t>
+    <t xml:space="preserve">Using previous value: 0Using previous value: 477594 Asset rule </t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 501473 Asset rule </t>
+    <t xml:space="preserve">Using previous value: 0Using previous value: 501473 Asset rule </t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 526547 Asset rule </t>
+    <t xml:space="preserve">Using previous value: 0Using previous value: 526547 Asset rule </t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 552874 Asset rule </t>
+    <t xml:space="preserve">Using previous value: 0Using previous value: 552874 Asset rule </t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 580518 Asset rule </t>
+    <t xml:space="preserve">Using previous value: 0Using previous value: 580518 Asset rule </t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 609544 Asset rule </t>
+    <t xml:space="preserve">Using previous value: 0Using previous value: 609544 Asset rule </t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 640021 Asset rule </t>
+    <t xml:space="preserve">Using previous value: 0Using previous value: 640021 Asset rule </t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 672022 Asset rule </t>
+    <t xml:space="preserve">Using previous value: 0Using previous value: 672022 Asset rule </t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 705623 Asset rule </t>
+    <t xml:space="preserve">Using previous value: 0Using previous value: 705623 Asset rule </t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 740904 Asset rule </t>
+    <t xml:space="preserve">Using previous value: 0Using previous value: 740904 Asset rule </t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 777950 Asset rule </t>
+    <t xml:space="preserve">Using previous value: 0Using previous value: 777950 Asset rule </t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 816847 Asset rule </t>
+    <t xml:space="preserve">Using previous value: 0Using previous value: 816847 Asset rule </t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 857689 Asset rule </t>
+    <t xml:space="preserve">Using previous value: 0Using previous value: 857689 Asset rule </t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 900574 Asset rule </t>
+    <t xml:space="preserve">Using previous value: 0Using previous value: 900574 Asset rule </t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 945603 Asset rule </t>
+    <t xml:space="preserve">Using previous value: 0Using previous value: 945603 Asset rule </t>
   </si>
   <si>
-    <t>fond privat</t>
+    <t>Kron privat</t>
   </si>
   <si>
     <t>fond</t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule Normal: 100000</t>
+    <t>Using previous value: 0 Asset rule Normal: 50000</t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule Normal: 115000</t>
+    <t>Using previous value: 0Setter inn 6000,- pr år. Teller ikke med i FIRE sparing ennå. Asset rule Addingdiff: 6000</t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule Normal: 120750</t>
+    <t>Using previous value: 0 Asset rule Normal: 73025</t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule Normal: 127995</t>
+    <t>Using previous value: 0 Asset rule Normal: 76676</t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule Normal: 134395</t>
+    <t>Using previous value: 0 Asset rule Normal: 81277</t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule Normal: 142459</t>
+    <t>Using previous value: 0 Asset rule Normal: 85341</t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule Normal: 149582</t>
+    <t>Using previous value: 0 Asset rule Normal: 90461</t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule Normal: 157061</t>
+    <t>Using previous value: 0 Asset rule Normal: 94984</t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule Normal: 164914</t>
+    <t>Using previous value: 0 Asset rule Normal: 99733</t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule Normal: 173160</t>
+    <t>Using previous value: 0 Asset rule Normal: 104720</t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule Normal: 181818</t>
+    <t>Using previous value: 0 Asset rule Normal: 109956</t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule Normal: 190909</t>
+    <t>Using previous value: 0 Asset rule Normal: 115454</t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule Normal: 200454</t>
+    <t>Using previous value: 0 Asset rule Normal: 121227</t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule Normal: 210477</t>
+    <t>Using previous value: 0 Asset rule Normal: 127288</t>
   </si>
   <si>
-    <t xml:space="preserve">Uttak fra 2037, -1/20 Asset rule -1/19Adding divisor rule: -1/19 transfer diff 11 050,04 to income.2037.income.amount
+    <t>Using previous value: 0 Asset rule Normal: 133652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using previous value: 0Uttak fra 2037, -1/20 Asset rule -1/19Adding divisor rule: -1/19 transfer diff 7 016,75 to income.2037.income.amount
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule -1/18Adding previous divisor rule: -1/18 transfer diff 11 602,54 to income.2038.income.amount
+    <t xml:space="preserve">Using previous value: 0 Asset rule -1/18Adding previous divisor rule: -1/18 transfer diff 7 367,58 to income.2038.income.amount
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule -1/17Adding previous divisor rule: -1/17 transfer diff 12 182,67 to income.2039.income.amount
+    <t xml:space="preserve">Using previous value: 0 Asset rule -1/17Adding previous divisor rule: -1/17 transfer diff 7 735,94 to income.2039.income.amount
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule -1/16Adding previous divisor rule: -1/16 transfer diff 12 791,81 to income.2040.income.amount
+    <t xml:space="preserve">Using previous value: 0 Asset rule -1/16Adding previous divisor rule: -1/16 transfer diff 8 122,76 to income.2040.income.amount
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule -1/15Adding previous divisor rule: -1/15 transfer diff 13 559,31 to income.2041.income.amount
+    <t xml:space="preserve">Using previous value: 0 Asset rule -1/15Adding previous divisor rule: -1/15 transfer diff 8 610,13 to income.2041.income.amount
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule -1/14Adding previous divisor rule: -1/14 transfer diff 14 372,87 to income.2042.income.amount
+    <t xml:space="preserve">Using previous value: 0 Asset rule -1/14Adding previous divisor rule: -1/14 transfer diff 9 126,73 to income.2042.income.amount
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule -1/13Adding previous divisor rule: -1/13 transfer diff 15 235,24 to income.2043.income.amount
+    <t xml:space="preserve">Using previous value: 0 Asset rule -1/13Adding previous divisor rule: -1/13 transfer diff 9 674,36 to income.2043.income.amount
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule -1/12Adding previous divisor rule: -1/12 transfer diff 16 149,36 to income.2044.income.amount
+    <t xml:space="preserve">Using previous value: 0 Asset rule -1/12Adding previous divisor rule: -1/12 transfer diff 10 254,85 to income.2044.income.amount
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule -1/11Adding previous divisor rule: -1/11 transfer diff 17 118,32 to income.2045.income.amount
+    <t xml:space="preserve">Using previous value: 0 Asset rule -1/11Adding previous divisor rule: -1/11 transfer diff 10 870,17 to income.2045.income.amount
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule -1/10Adding previous divisor rule: -1/10 transfer diff 18 145,42 to income.2046.income.amount
+    <t xml:space="preserve">Using previous value: 0 Asset rule -1/10Adding previous divisor rule: -1/10 transfer diff 11 522,36 to income.2046.income.amount
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule -1/9Adding previous divisor rule: -1/9 transfer diff 19 234,15 to income.2047.income.amount
+    <t xml:space="preserve">Using previous value: 0 Asset rule -1/9Adding previous divisor rule: -1/9 transfer diff 12 213,70 to income.2047.income.amount
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule -1/8Adding previous divisor rule: -1/8 transfer diff 20 388,19 to income.2048.income.amount
+    <t xml:space="preserve">Using previous value: 0 Asset rule -1/8Adding previous divisor rule: -1/8 transfer diff 12 946,56 to income.2048.income.amount
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule -1/7Adding previous divisor rule: -1/7 transfer diff 21 611,49 to income.2049.income.amount
+    <t xml:space="preserve">Using previous value: 0 Asset rule -1/7Adding previous divisor rule: -1/7 transfer diff 13 723,38 to income.2049.income.amount
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule -1/6Adding previous divisor rule: -1/6 transfer diff 22 908,18 to income.2050.income.amount
+    <t xml:space="preserve">Using previous value: 0 Asset rule -1/6Adding previous divisor rule: -1/6 transfer diff 14 546,71 to income.2050.income.amount
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule -1/5Adding previous divisor rule: -1/5 transfer diff 24 282,67 to income.2051.income.amount
+    <t xml:space="preserve">Using previous value: 0 Asset rule -1/5Adding previous divisor rule: -1/5 transfer diff 15 419,50 to income.2051.income.amount
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule -1/4Adding previous divisor rule: -1/4 transfer diff 25 739,63 to income.2052.income.amount
+    <t xml:space="preserve">Using previous value: 0 Asset rule -1/4Adding previous divisor rule: -1/4 transfer diff 16 344,60 to income.2052.income.amount
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule -1/3Adding previous divisor rule: -1/3 transfer diff 27 284,00 to income.2053.income.amount
+    <t xml:space="preserve">Using previous value: 0 Asset rule -1/3Adding previous divisor rule: -1/3 transfer diff 17 325,25 to income.2053.income.amount
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule -1/2Adding previous divisor rule: -1/2 transfer diff 28 921,04 to income.2054.income.amount
+    <t xml:space="preserve">Using previous value: 0 Asset rule -1/2Adding previous divisor rule: -1/2 transfer diff 18 364,67 to income.2054.income.amount
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule -1/1Adding previous divisor rule: -1/1 transfer diff 30 656,31 to income.2055.income.amount
+    <t xml:space="preserve">Using previous value: 0 Asset rule -1/1Adding previous divisor rule: -1/1 transfer diff 19 466,50 to income.2055.income.amount
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule Adding previous divisor rule:  transfer diff 32 495,68 to income.2056.income.amount
+    <t xml:space="preserve">Using previous value: 0 Asset rule Adding previous divisor rule:  transfer diff 20 634,00 to income.2056.income.amount
 </t>
   </si>
   <si>
@@ -994,7 +997,7 @@
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S6" s="2"/>
       <c r="T6" s="1">
@@ -1066,7 +1069,7 @@
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S7" s="2"/>
       <c r="T7" s="1">
@@ -1138,7 +1141,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S8" s="2"/>
       <c r="T8" s="1">
@@ -1210,7 +1213,7 @@
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S9" s="2"/>
       <c r="T9" s="1">
@@ -1282,7 +1285,7 @@
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S10" s="2"/>
       <c r="T10" s="1">
@@ -1354,7 +1357,7 @@
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S11" s="2"/>
       <c r="T11" s="1">
@@ -1426,7 +1429,7 @@
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S12" s="2"/>
       <c r="T12" s="1">
@@ -1498,7 +1501,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S13" s="2"/>
       <c r="T13" s="1">
@@ -1570,7 +1573,7 @@
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S14" s="2"/>
       <c r="T14" s="1">
@@ -1642,7 +1645,7 @@
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S15" s="2"/>
       <c r="T15" s="1">
@@ -1714,7 +1717,7 @@
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S16" s="2"/>
       <c r="T16" s="1">
@@ -1786,7 +1789,7 @@
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S17" s="2"/>
       <c r="T17" s="1">
@@ -1858,7 +1861,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S18" s="2"/>
       <c r="T18" s="1">
@@ -1930,7 +1933,7 @@
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S19" s="2"/>
       <c r="T19" s="1">
@@ -2002,7 +2005,7 @@
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S20" s="2"/>
       <c r="T20" s="1">
@@ -2074,7 +2077,7 @@
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S21" s="2"/>
       <c r="T21" s="1">
@@ -2146,7 +2149,7 @@
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S22" s="2"/>
       <c r="T22" s="1">
@@ -2218,7 +2221,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S23" s="2"/>
       <c r="T23" s="1">
@@ -2290,7 +2293,7 @@
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S24" s="2"/>
       <c r="T24" s="1">
@@ -2362,7 +2365,7 @@
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S25" s="2"/>
       <c r="T25" s="1">
@@ -2434,7 +2437,7 @@
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S26" s="2"/>
       <c r="T26" s="1">
@@ -2506,7 +2509,7 @@
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S27" s="2"/>
       <c r="T27" s="1">
@@ -2578,7 +2581,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S28" s="2"/>
       <c r="T28" s="1">
@@ -2650,7 +2653,7 @@
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S29" s="2"/>
       <c r="T29" s="1">
@@ -2722,7 +2725,7 @@
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S30" s="2"/>
       <c r="T30" s="1">
@@ -2794,7 +2797,7 @@
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S31" s="2"/>
       <c r="T31" s="1">
@@ -2866,7 +2869,7 @@
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S32" s="2"/>
       <c r="T32" s="1">
@@ -2938,7 +2941,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S33" s="2"/>
       <c r="T33" s="1">
@@ -3010,7 +3013,7 @@
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S34" s="2"/>
       <c r="T34" s="1">
@@ -3082,7 +3085,7 @@
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S35" s="2"/>
       <c r="T35" s="1">
@@ -3154,7 +3157,7 @@
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S36" s="2"/>
       <c r="T36" s="1">
@@ -3226,7 +3229,7 @@
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S37" s="2"/>
       <c r="T37" s="1">
@@ -3294,13 +3297,15 @@
         <v>0</v>
       </c>
       <c r="P38" s="6">
-        <v>0.0</v>
+        <v>50000.0</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="S38" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="S38" s="2">
+        <v>0.01</v>
+      </c>
       <c r="T38" s="1">
         <v>0.0</v>
       </c>
@@ -3308,7 +3313,7 @@
         <v>300000.0</v>
       </c>
       <c r="V38" s="1">
-        <v>0.0</v>
+        <v>50000.0</v>
       </c>
       <c r="W38" s="2"/>
       <c r="X38" s="1">
@@ -3324,10 +3329,10 @@
         <v>0.0</v>
       </c>
       <c r="AB38">
-        <v>300000.0</v>
+        <v>302000.0</v>
       </c>
       <c r="AC38" s="2">
-        <v>0.625</v>
+        <v>0.62655601659751</v>
       </c>
       <c r="AD38"/>
     </row>
@@ -3339,7 +3344,7 @@
         <v>49</v>
       </c>
       <c r="C39" s="8">
-        <v>504000.0</v>
+        <v>0.0</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="8">
@@ -3368,11 +3373,11 @@
         <v>0</v>
       </c>
       <c r="P39" s="8">
-        <v>100000.0</v>
+        <v>63500.0</v>
       </c>
       <c r="Q39" s="9"/>
       <c r="R39" s="8">
-        <v>80000.0</v>
+        <v>0</v>
       </c>
       <c r="S39" s="9">
         <v>0.01</v>
@@ -3381,29 +3386,29 @@
         <v>0.0</v>
       </c>
       <c r="U39" s="8">
-        <v>314200.0</v>
+        <v>-189000.0</v>
       </c>
       <c r="V39" s="8">
-        <v>100000.0</v>
+        <v>63500.0</v>
       </c>
       <c r="W39" s="9"/>
       <c r="X39" s="8">
-        <v>504000.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y39" s="8">
-        <v>2520000.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z39" s="8">
-        <v>2520000.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA39" s="7">
         <v>0.0</v>
       </c>
       <c r="AB39" s="7">
-        <v>319000.0</v>
+        <v>-186460.0</v>
       </c>
       <c r="AC39" s="9">
-        <v>0.62795275590551</v>
+        <v>-73.409448818898</v>
       </c>
       <c r="AD39" s="7"/>
     </row>
@@ -3415,7 +3420,7 @@
         <v>50</v>
       </c>
       <c r="C40" s="11">
-        <v>529200.0</v>
+        <v>0.0</v>
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="11">
@@ -3444,11 +3449,11 @@
         <v>0</v>
       </c>
       <c r="P40" s="11">
-        <v>115000.0</v>
+        <v>73025.0</v>
       </c>
       <c r="Q40" s="12"/>
       <c r="R40" s="11">
-        <v>92000.0</v>
+        <v>0</v>
       </c>
       <c r="S40" s="12">
         <v>0.01</v>
@@ -3457,29 +3462,29 @@
         <v>0.0</v>
       </c>
       <c r="U40" s="11">
-        <v>329830.0</v>
+        <v>-198450.0</v>
       </c>
       <c r="V40" s="11">
-        <v>115000.0</v>
+        <v>73025.0</v>
       </c>
       <c r="W40" s="12"/>
       <c r="X40" s="11">
-        <v>529200.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y40" s="11">
-        <v>2646000.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z40" s="11">
-        <v>2646000.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA40" s="10">
         <v>0.0</v>
       </c>
       <c r="AB40" s="10">
-        <v>335350.0</v>
+        <v>-195529.0</v>
       </c>
       <c r="AC40" s="12">
-        <v>0.62823154739603</v>
+        <v>-66.93906196508</v>
       </c>
       <c r="AD40" s="10"/>
     </row>
@@ -3491,7 +3496,7 @@
         <v>51</v>
       </c>
       <c r="C41" s="4">
-        <v>555660.0</v>
+        <v>0.0</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="5">
@@ -3520,11 +3525,11 @@
         <v>0</v>
       </c>
       <c r="P41" s="6">
-        <v>120750.0</v>
+        <v>76676.0</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" s="1">
-        <v>96600.0</v>
+        <v>0</v>
       </c>
       <c r="S41" s="2">
         <v>0.01</v>
@@ -3533,29 +3538,29 @@
         <v>0.0</v>
       </c>
       <c r="U41" s="6">
-        <v>346321.5</v>
+        <v>-208372.5</v>
       </c>
       <c r="V41" s="1">
-        <v>120750.0</v>
+        <v>76676.0</v>
       </c>
       <c r="W41" s="2"/>
       <c r="X41" s="1">
-        <v>555660.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y41" s="1">
-        <v>2778300.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z41" s="1">
-        <v>2778300.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA41">
         <v>0.0</v>
       </c>
       <c r="AB41">
-        <v>352118.0</v>
+        <v>-205306.0</v>
       </c>
       <c r="AC41" s="2">
-        <v>0.6282324394726</v>
+        <v>-66.939459544056</v>
       </c>
       <c r="AD41"/>
     </row>
@@ -3567,7 +3572,7 @@
         <v>52</v>
       </c>
       <c r="C42" s="4">
-        <v>583443.0</v>
+        <v>0.0</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="5">
@@ -3596,11 +3601,11 @@
         <v>0</v>
       </c>
       <c r="P42" s="6">
-        <v>127995.0</v>
+        <v>81277.0</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" s="1">
-        <v>102396.0</v>
+        <v>0</v>
       </c>
       <c r="S42" s="2">
         <v>0.01</v>
@@ -3609,29 +3614,29 @@
         <v>0.0</v>
       </c>
       <c r="U42" s="6">
-        <v>363627.915</v>
+        <v>-218791.125</v>
       </c>
       <c r="V42" s="1">
-        <v>127995.0</v>
+        <v>81277.0</v>
       </c>
       <c r="W42" s="2"/>
       <c r="X42" s="1">
-        <v>583443.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y42" s="1">
-        <v>2917215.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z42" s="1">
-        <v>2917215.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA42">
         <v>0.0</v>
       </c>
       <c r="AB42">
-        <v>369772.0</v>
+        <v>-215540.0</v>
       </c>
       <c r="AC42" s="2">
-        <v>0.62826260851009</v>
+        <v>-66.297968675025</v>
       </c>
       <c r="AD42"/>
     </row>
@@ -3643,7 +3648,7 @@
         <v>53</v>
       </c>
       <c r="C43" s="4">
-        <v>612615.15</v>
+        <v>0.0</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="5">
@@ -3672,11 +3677,11 @@
         <v>0</v>
       </c>
       <c r="P43" s="6">
-        <v>134395.0</v>
+        <v>85341.0</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" s="1">
-        <v>107516.0</v>
+        <v>0</v>
       </c>
       <c r="S43" s="2">
         <v>0.01</v>
@@ -3685,29 +3690,29 @@
         <v>0.0</v>
       </c>
       <c r="U43" s="6">
-        <v>381809.30875</v>
+        <v>-229730.68125</v>
       </c>
       <c r="V43" s="1">
-        <v>134395.0</v>
+        <v>85341.0</v>
       </c>
       <c r="W43" s="2"/>
       <c r="X43" s="1">
-        <v>612615.15</v>
+        <v>0.0</v>
       </c>
       <c r="Y43" s="1">
-        <v>3063075.75</v>
+        <v>0.0</v>
       </c>
       <c r="Z43" s="1">
-        <v>3063075.75</v>
+        <v>0.0</v>
       </c>
       <c r="AA43">
         <v>0.0</v>
       </c>
       <c r="AB43">
-        <v>388260.0</v>
+        <v>-226317.0</v>
       </c>
       <c r="AC43" s="2">
-        <v>0.62826162745587</v>
+        <v>-66.297852146096</v>
       </c>
       <c r="AD43"/>
     </row>
@@ -3719,7 +3724,7 @@
         <v>54</v>
       </c>
       <c r="C44" s="4">
-        <v>643245.9075</v>
+        <v>0.0</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="5">
@@ -3748,11 +3753,11 @@
         <v>0</v>
       </c>
       <c r="P44" s="6">
-        <v>142459.0</v>
+        <v>90461.0</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" s="1">
-        <v>113967.2</v>
+        <v>0</v>
       </c>
       <c r="S44" s="2">
         <v>0.01</v>
@@ -3761,29 +3766,29 @@
         <v>0.0</v>
       </c>
       <c r="U44" s="6">
-        <v>400889.0201875</v>
+        <v>-241217.2153125</v>
       </c>
       <c r="V44" s="1">
-        <v>142459.0</v>
+        <v>90461.0</v>
       </c>
       <c r="W44" s="2"/>
       <c r="X44" s="1">
-        <v>643245.9075</v>
+        <v>0.0</v>
       </c>
       <c r="Y44" s="1">
-        <v>3216229.5375</v>
+        <v>0.0</v>
       </c>
       <c r="Z44" s="1">
-        <v>3216229.5375</v>
+        <v>0.0</v>
       </c>
       <c r="AA44">
         <v>0.0</v>
       </c>
       <c r="AB44">
-        <v>407727.0</v>
+        <v>-237599.0</v>
       </c>
       <c r="AC44" s="2">
-        <v>0.62829278324737</v>
+        <v>-65.663379799029</v>
       </c>
       <c r="AD44"/>
     </row>
@@ -3795,7 +3800,7 @@
         <v>55</v>
       </c>
       <c r="C45" s="4">
-        <v>675408.202875</v>
+        <v>0.0</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="5">
@@ -3824,11 +3829,11 @@
         <v>0</v>
       </c>
       <c r="P45" s="6">
-        <v>149582.0</v>
+        <v>94984.0</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" s="1">
-        <v>119665.6</v>
+        <v>0</v>
       </c>
       <c r="S45" s="2">
         <v>0.01</v>
@@ -3837,29 +3842,29 @@
         <v>0.0</v>
       </c>
       <c r="U45" s="6">
-        <v>420933.47079687</v>
+        <v>-253278.07607813</v>
       </c>
       <c r="V45" s="1">
-        <v>149582.0</v>
+        <v>94984.0</v>
       </c>
       <c r="W45" s="2"/>
       <c r="X45" s="1">
-        <v>675408.202875</v>
+        <v>0.0</v>
       </c>
       <c r="Y45" s="1">
-        <v>3377041.014375</v>
+        <v>0.0</v>
       </c>
       <c r="Z45" s="1">
-        <v>3377041.014375</v>
+        <v>0.0</v>
       </c>
       <c r="AA45">
         <v>0.0</v>
       </c>
       <c r="AB45">
-        <v>428113.0</v>
+        <v>-249479.0</v>
       </c>
       <c r="AC45" s="2">
-        <v>0.62829226774843</v>
+        <v>-65.663427524636</v>
       </c>
       <c r="AD45"/>
     </row>
@@ -3871,7 +3876,7 @@
         <v>56</v>
       </c>
       <c r="C46" s="4">
-        <v>709178.61301875</v>
+        <v>0.0</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="5">
@@ -3900,11 +3905,11 @@
         <v>0</v>
       </c>
       <c r="P46" s="6">
-        <v>157061.0</v>
+        <v>99733.0</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" s="1">
-        <v>125648.8</v>
+        <v>0</v>
       </c>
       <c r="S46" s="2">
         <v>0.01</v>
@@ -3913,29 +3918,29 @@
         <v>0.0</v>
       </c>
       <c r="U46" s="6">
-        <v>441980.14513671</v>
+        <v>-265941.97988204</v>
       </c>
       <c r="V46" s="1">
-        <v>157061.0</v>
+        <v>99733.0</v>
       </c>
       <c r="W46" s="2"/>
       <c r="X46" s="1">
-        <v>709178.61301875</v>
+        <v>0.0</v>
       </c>
       <c r="Y46" s="1">
-        <v>3545893.0650938</v>
+        <v>0.0</v>
       </c>
       <c r="Z46" s="1">
-        <v>3545893.0650938</v>
+        <v>0.0</v>
       </c>
       <c r="AA46">
         <v>0.0</v>
       </c>
       <c r="AB46">
-        <v>449519.0</v>
+        <v>-261953.0</v>
       </c>
       <c r="AC46" s="2">
-        <v>0.62829276045613</v>
+        <v>-65.663571736537</v>
       </c>
       <c r="AD46"/>
     </row>
@@ -3947,7 +3952,7 @@
         <v>57</v>
       </c>
       <c r="C47" s="4">
-        <v>744637.54366969</v>
+        <v>0.0</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="5">
@@ -3976,11 +3981,11 @@
         <v>0</v>
       </c>
       <c r="P47" s="6">
-        <v>164914.0</v>
+        <v>104720.0</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" s="1">
-        <v>131931.2</v>
+        <v>0</v>
       </c>
       <c r="S47" s="2">
         <v>0.01</v>
@@ -3989,29 +3994,29 @@
         <v>0.0</v>
       </c>
       <c r="U47" s="6">
-        <v>464079.15279355</v>
+        <v>-279239.07887614</v>
       </c>
       <c r="V47" s="1">
-        <v>164914.0</v>
+        <v>104720.0</v>
       </c>
       <c r="W47" s="2"/>
       <c r="X47" s="1">
-        <v>744637.54366969</v>
+        <v>0.0</v>
       </c>
       <c r="Y47" s="1">
-        <v>3723187.7183485</v>
+        <v>0.0</v>
       </c>
       <c r="Z47" s="1">
-        <v>3723187.7183485</v>
+        <v>0.0</v>
       </c>
       <c r="AA47">
         <v>0.0</v>
       </c>
       <c r="AB47">
-        <v>471995.0</v>
+        <v>-275050.0</v>
       </c>
       <c r="AC47" s="2">
-        <v>0.62829282868597</v>
+        <v>-65.663197097021</v>
       </c>
       <c r="AD47"/>
     </row>
@@ -4023,7 +4028,7 @@
         <v>58</v>
       </c>
       <c r="C48" s="4">
-        <v>781869.42085317</v>
+        <v>0.0</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="5">
@@ -4052,11 +4057,11 @@
         <v>0</v>
       </c>
       <c r="P48" s="6">
-        <v>173160.0</v>
+        <v>109956.0</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" s="1">
-        <v>138528.0</v>
+        <v>0</v>
       </c>
       <c r="S48" s="2">
         <v>0.01</v>
@@ -4065,29 +4070,29 @@
         <v>0.0</v>
       </c>
       <c r="U48" s="6">
-        <v>487283.10803322</v>
+        <v>-293201.03281995</v>
       </c>
       <c r="V48" s="1">
-        <v>173160.0</v>
+        <v>109956.0</v>
       </c>
       <c r="W48" s="2"/>
       <c r="X48" s="1">
-        <v>781869.42085317</v>
+        <v>0.0</v>
       </c>
       <c r="Y48" s="1">
-        <v>3909347.1042659</v>
+        <v>0.0</v>
       </c>
       <c r="Z48" s="1">
-        <v>3909347.1042659</v>
+        <v>0.0</v>
       </c>
       <c r="AA48">
         <v>0.0</v>
       </c>
       <c r="AB48">
-        <v>495594.0</v>
+        <v>-288803.0</v>
       </c>
       <c r="AC48" s="2">
-        <v>0.62829186831132</v>
+        <v>-65.663310778857</v>
       </c>
       <c r="AD48"/>
     </row>
@@ -4099,7 +4104,7 @@
         <v>59</v>
       </c>
       <c r="C49" s="4">
-        <v>820962.89189583</v>
+        <v>0.0</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="5">
@@ -4128,11 +4133,11 @@
         <v>0</v>
       </c>
       <c r="P49" s="6">
-        <v>181818.0</v>
+        <v>115454.0</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" s="1">
-        <v>145454.4</v>
+        <v>0</v>
       </c>
       <c r="S49" s="2">
         <v>0.01</v>
@@ -4141,29 +4146,29 @@
         <v>0.0</v>
       </c>
       <c r="U49" s="6">
-        <v>511647.26343488</v>
+        <v>-307861.08446095</v>
       </c>
       <c r="V49" s="1">
-        <v>181818.0</v>
+        <v>115454.0</v>
       </c>
       <c r="W49" s="2"/>
       <c r="X49" s="1">
-        <v>820962.89189583</v>
+        <v>0.0</v>
       </c>
       <c r="Y49" s="1">
-        <v>4104814.4594792</v>
+        <v>0.0</v>
       </c>
       <c r="Z49" s="1">
-        <v>4104814.4594792</v>
+        <v>0.0</v>
       </c>
       <c r="AA49">
         <v>0.0</v>
       </c>
       <c r="AB49">
-        <v>520375.0</v>
+        <v>-303243.0</v>
       </c>
       <c r="AC49" s="2">
-        <v>0.62829343791299</v>
+        <v>-65.663164550384</v>
       </c>
       <c r="AD49"/>
     </row>
@@ -4175,7 +4180,7 @@
         <v>60</v>
       </c>
       <c r="C50" s="4">
-        <v>862011.03649062</v>
+        <v>0.0</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="5">
@@ -4204,11 +4209,11 @@
         <v>0</v>
       </c>
       <c r="P50" s="6">
-        <v>190909.0</v>
+        <v>121227.0</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" s="1">
-        <v>152727.2</v>
+        <v>0</v>
       </c>
       <c r="S50" s="2">
         <v>0.01</v>
@@ -4217,29 +4222,29 @@
         <v>0.0</v>
       </c>
       <c r="U50" s="6">
-        <v>537229.62580662</v>
+        <v>-323254.138684</v>
       </c>
       <c r="V50" s="1">
-        <v>190909.0</v>
+        <v>121227.0</v>
       </c>
       <c r="W50" s="2"/>
       <c r="X50" s="1">
-        <v>862011.03649062</v>
+        <v>0.0</v>
       </c>
       <c r="Y50" s="1">
-        <v>4310055.1824531</v>
+        <v>0.0</v>
       </c>
       <c r="Z50" s="1">
-        <v>4310055.1824531</v>
+        <v>0.0</v>
       </c>
       <c r="AA50">
         <v>0.0</v>
       </c>
       <c r="AB50">
-        <v>546393.0</v>
+        <v>-318405.0</v>
       </c>
       <c r="AC50" s="2">
-        <v>0.62829257260462</v>
+        <v>-65.662971120295</v>
       </c>
       <c r="AD50"/>
     </row>
@@ -4251,7 +4256,7 @@
         <v>61</v>
       </c>
       <c r="C51" s="4">
-        <v>905111.58831515</v>
+        <v>0.0</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="5">
@@ -4280,11 +4285,11 @@
         <v>0</v>
       </c>
       <c r="P51" s="6">
-        <v>200454.0</v>
+        <v>127288.0</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" s="1">
-        <v>160363.2</v>
+        <v>0</v>
       </c>
       <c r="S51" s="2">
         <v>0.01</v>
@@ -4293,29 +4298,29 @@
         <v>0.0</v>
       </c>
       <c r="U51" s="6">
-        <v>564091.11069695</v>
+        <v>-339416.8456182</v>
       </c>
       <c r="V51" s="1">
-        <v>200454.0</v>
+        <v>127288.0</v>
       </c>
       <c r="W51" s="2"/>
       <c r="X51" s="1">
-        <v>905111.58831515</v>
+        <v>0.0</v>
       </c>
       <c r="Y51" s="1">
-        <v>4525557.9415757</v>
+        <v>0.0</v>
       </c>
       <c r="Z51" s="1">
-        <v>4525557.9415757</v>
+        <v>0.0</v>
       </c>
       <c r="AA51">
         <v>0.0</v>
       </c>
       <c r="AB51">
-        <v>573713.0</v>
+        <v>-334325.0</v>
       </c>
       <c r="AC51" s="2">
-        <v>0.6282929682869</v>
+        <v>-65.663102570549</v>
       </c>
       <c r="AD51"/>
     </row>
@@ -4327,7 +4332,7 @@
         <v>62</v>
       </c>
       <c r="C52" s="4">
-        <v>950367.16773091</v>
+        <v>0.0</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="5">
@@ -4356,11 +4361,11 @@
         <v>0</v>
       </c>
       <c r="P52" s="6">
-        <v>210477.0</v>
+        <v>133652.0</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" s="1">
-        <v>168381.6</v>
+        <v>0</v>
       </c>
       <c r="S52" s="2">
         <v>0.01</v>
@@ -4369,29 +4374,29 @@
         <v>0.0</v>
       </c>
       <c r="U52" s="6">
-        <v>592295.6638318</v>
+        <v>-356387.68789911</v>
       </c>
       <c r="V52" s="1">
-        <v>210477.0</v>
+        <v>133652.0</v>
       </c>
       <c r="W52" s="2"/>
       <c r="X52" s="1">
-        <v>950367.16773091</v>
+        <v>0.0</v>
       </c>
       <c r="Y52" s="1">
-        <v>4751835.8386545</v>
+        <v>0.0</v>
       </c>
       <c r="Z52" s="1">
-        <v>4751835.8386545</v>
+        <v>0.0</v>
       </c>
       <c r="AA52">
         <v>0.0</v>
       </c>
       <c r="AB52">
-        <v>602398.0</v>
+        <v>-351042.0</v>
       </c>
       <c r="AC52" s="2">
-        <v>0.62829228248283</v>
+        <v>-65.663439379882</v>
       </c>
       <c r="AD52"/>
     </row>
@@ -4403,7 +4408,7 @@
         <v>63</v>
       </c>
       <c r="C53" s="13">
-        <v>11050.0425</v>
+        <v>7016.75</v>
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="13">
@@ -4432,11 +4437,11 @@
         <v>0</v>
       </c>
       <c r="P53" s="13">
-        <v>209950.8075</v>
+        <v>133318.25</v>
       </c>
       <c r="Q53" s="14"/>
       <c r="R53" s="13">
-        <v>167960.646</v>
+        <v>0</v>
       </c>
       <c r="S53" s="14">
         <v>0.01</v>
@@ -4445,10 +4450,10 @@
         <v>0.0</v>
       </c>
       <c r="U53" s="13">
-        <v>-375886.67875407</v>
+        <v>-374207.07229407</v>
       </c>
       <c r="V53" s="13">
-        <v>209950.8075</v>
+        <v>133318.25</v>
       </c>
       <c r="W53" s="14"/>
       <c r="X53" s="13">
@@ -4464,10 +4469,10 @@
         <v>0.0</v>
       </c>
       <c r="AB53" s="3">
-        <v>-365809.0</v>
+        <v>-368874.0</v>
       </c>
       <c r="AC53" s="14">
-        <v>-43.558894147144</v>
+        <v>-69.171700048568</v>
       </c>
       <c r="AD53" s="3"/>
     </row>
@@ -4479,7 +4484,7 @@
         <v>64</v>
       </c>
       <c r="C54" s="4">
-        <v>11602.544625</v>
+        <v>7367.5789473684</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="5">
@@ -4508,11 +4513,11 @@
         <v>0</v>
       </c>
       <c r="P54" s="6">
-        <v>208845.80325</v>
+        <v>132616.42105263</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" s="1">
-        <v>167076.6426</v>
+        <v>0</v>
       </c>
       <c r="S54" s="2">
         <v>0.01</v>
@@ -4521,10 +4526,10 @@
         <v>0.0</v>
       </c>
       <c r="U54" s="6">
-        <v>-394588.19233477</v>
+        <v>-392917.42590877</v>
       </c>
       <c r="V54" s="1">
-        <v>208845.80325</v>
+        <v>132616.42105263</v>
       </c>
       <c r="W54" s="2"/>
       <c r="X54" s="1">
@@ -4540,10 +4545,10 @@
         <v>0.0</v>
       </c>
       <c r="AB54">
-        <v>-384563.0</v>
+        <v>-387612.0</v>
       </c>
       <c r="AC54" s="2">
-        <v>-46.034322214708</v>
+        <v>-73.070136587039</v>
       </c>
       <c r="AD54"/>
     </row>
@@ -4555,7 +4560,7 @@
         <v>65</v>
       </c>
       <c r="C55" s="4">
-        <v>12182.67185625</v>
+        <v>7735.9444444444</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="5">
@@ -4584,11 +4589,11 @@
         <v>0</v>
       </c>
       <c r="P55" s="6">
-        <v>207105.42155625</v>
+        <v>131511.05555556</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" s="1">
-        <v>165684.337245</v>
+        <v>0</v>
       </c>
       <c r="S55" s="2">
         <v>0.01</v>
@@ -4597,10 +4602,10 @@
         <v>0.0</v>
       </c>
       <c r="U55" s="6">
-        <v>-414220.14057666</v>
+        <v>-412563.29720421</v>
       </c>
       <c r="V55" s="1">
-        <v>207105.42155625</v>
+        <v>131511.05555556</v>
       </c>
       <c r="W55" s="2"/>
       <c r="X55" s="1">
@@ -4616,10 +4621,10 @@
         <v>0.0</v>
       </c>
       <c r="AB55">
-        <v>-404279.0</v>
+        <v>-407303.0</v>
       </c>
       <c r="AC55" s="2">
-        <v>-48.801112612375</v>
+        <v>-77.427520880163</v>
       </c>
       <c r="AD55"/>
     </row>
@@ -4631,7 +4636,7 @@
         <v>66</v>
       </c>
       <c r="C56" s="4">
-        <v>12791.805449062</v>
+        <v>8122.7647058823</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="5">
@@ -4660,11 +4665,11 @@
         <v>0</v>
       </c>
       <c r="P56" s="6">
-        <v>204668.887185</v>
+        <v>129964.23529412</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" s="1">
-        <v>163735.109748</v>
+        <v>0</v>
       </c>
       <c r="S56" s="2">
         <v>0.01</v>
@@ -4673,10 +4678,10 @@
         <v>0.0</v>
       </c>
       <c r="U56" s="6">
-        <v>-434828.8131619</v>
+        <v>-433191.46206442</v>
       </c>
       <c r="V56" s="1">
-        <v>204668.887185</v>
+        <v>129964.23529412</v>
       </c>
       <c r="W56" s="2"/>
       <c r="X56" s="1">
@@ -4692,10 +4697,10 @@
         <v>0.0</v>
       </c>
       <c r="AB56">
-        <v>-425004.0</v>
+        <v>-427992.0</v>
       </c>
       <c r="AC56" s="2">
-        <v>-51.913606147651</v>
+        <v>-82.328803580352</v>
       </c>
       <c r="AD56"/>
     </row>
@@ -4707,7 +4712,7 @@
         <v>67</v>
       </c>
       <c r="C57" s="13">
-        <v>13559.313776006</v>
+        <v>8610.125</v>
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="13">
@@ -4736,11 +4741,11 @@
         <v>0</v>
       </c>
       <c r="P57" s="13">
-        <v>203389.70664009</v>
+        <v>129151.875</v>
       </c>
       <c r="Q57" s="14"/>
       <c r="R57" s="13">
-        <v>162711.76531208</v>
+        <v>0</v>
       </c>
       <c r="S57" s="14">
         <v>0.01</v>
@@ -4749,10 +4754,10 @@
         <v>0.0</v>
       </c>
       <c r="U57" s="13">
-        <v>-456478.15282076</v>
+        <v>-454851.03516764</v>
       </c>
       <c r="V57" s="13">
-        <v>203389.70664009</v>
+        <v>129151.875</v>
       </c>
       <c r="W57" s="14"/>
       <c r="X57" s="13">
@@ -4768,10 +4773,10 @@
         <v>0.0</v>
       </c>
       <c r="AB57" s="3">
-        <v>-446715.0</v>
+        <v>-449685.0</v>
       </c>
       <c r="AC57" s="14">
-        <v>-54.908752190503</v>
+        <v>-87.045774596768</v>
       </c>
       <c r="AD57" s="3"/>
     </row>
@@ -4783,7 +4788,7 @@
         <v>68</v>
       </c>
       <c r="C58" s="4">
-        <v>14372.872602567</v>
+        <v>9126.7333333333</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="5">
@@ -4812,11 +4817,11 @@
         <v>0</v>
       </c>
       <c r="P58" s="6">
-        <v>201220.21643593</v>
+        <v>127774.26666667</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" s="1">
-        <v>160976.17314875</v>
+        <v>0</v>
       </c>
       <c r="S58" s="2">
         <v>0.01</v>
@@ -4825,10 +4830,10 @@
         <v>0.0</v>
       </c>
       <c r="U58" s="6">
-        <v>-479203.34865751</v>
+        <v>-477593.58692602</v>
       </c>
       <c r="V58" s="1">
-        <v>201220.21643593</v>
+        <v>127774.26666667</v>
       </c>
       <c r="W58" s="2"/>
       <c r="X58" s="1">
@@ -4844,10 +4849,10 @@
         <v>0.0</v>
       </c>
       <c r="AB58">
-        <v>-469545.0</v>
+        <v>-472483.0</v>
       </c>
       <c r="AC58" s="2">
-        <v>-58.337204918659</v>
+        <v>-92.444866311109</v>
       </c>
       <c r="AD58"/>
     </row>
@@ -4859,7 +4864,7 @@
         <v>69</v>
       </c>
       <c r="C59" s="4">
-        <v>15235.244958721</v>
+        <v>9674.3571428571</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="5">
@@ -4888,11 +4893,11 @@
         <v>0</v>
       </c>
       <c r="P59" s="6">
-        <v>198058.18446337</v>
+        <v>125766.64285714</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" s="1">
-        <v>158446.5475707</v>
+        <v>0</v>
       </c>
       <c r="S59" s="2">
         <v>0.01</v>
@@ -4901,10 +4906,10 @@
         <v>0.0</v>
       </c>
       <c r="U59" s="6">
-        <v>-503057.73174803</v>
+        <v>-501473.26627232</v>
       </c>
       <c r="V59" s="1">
-        <v>198058.18446337</v>
+        <v>125766.64285714</v>
       </c>
       <c r="W59" s="2"/>
       <c r="X59" s="1">
@@ -4920,10 +4925,10 @@
         <v>0.0</v>
       </c>
       <c r="AB59">
-        <v>-493551.0</v>
+        <v>-496442.0</v>
       </c>
       <c r="AC59" s="2">
-        <v>-62.298738289616</v>
+        <v>-98.683162069434</v>
       </c>
       <c r="AD59"/>
     </row>
@@ -4935,7 +4940,7 @@
         <v>70</v>
       </c>
       <c r="C60" s="4">
-        <v>16149.359656244</v>
+        <v>10254.846153846</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="5">
@@ -4964,11 +4969,11 @@
         <v>0</v>
       </c>
       <c r="P60" s="6">
-        <v>193792.31587493</v>
+        <v>123058.15384615</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" s="1">
-        <v>155033.85269994</v>
+        <v>0</v>
       </c>
       <c r="S60" s="2">
         <v>0.01</v>
@@ -4977,10 +4982,10 @@
         <v>0.0</v>
       </c>
       <c r="U60" s="6">
-        <v>-528097.26811294</v>
+        <v>-526546.92958594</v>
       </c>
       <c r="V60" s="1">
-        <v>193792.31587493</v>
+        <v>123058.15384615</v>
       </c>
       <c r="W60" s="2"/>
       <c r="X60" s="1">
@@ -4996,10 +5001,10 @@
         <v>0.0</v>
       </c>
       <c r="AB60">
-        <v>-518795.0</v>
+        <v>-521625.0</v>
       </c>
       <c r="AC60" s="2">
-        <v>-66.926673234922</v>
+        <v>-105.97123873891</v>
       </c>
       <c r="AD60"/>
     </row>
@@ -5011,7 +5016,7 @@
         <v>71</v>
       </c>
       <c r="C61" s="4">
-        <v>17118.321235618</v>
+        <v>10870.166666667</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="5">
@@ -5040,11 +5045,11 @@
         <v>0</v>
       </c>
       <c r="P61" s="6">
-        <v>188301.5335918</v>
+        <v>119571.83333333</v>
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" s="1">
-        <v>150641.22687344</v>
+        <v>0</v>
       </c>
       <c r="S61" s="2">
         <v>0.01</v>
@@ -5053,10 +5058,10 @@
         <v>0.0</v>
       </c>
       <c r="U61" s="6">
-        <v>-554380.68833397</v>
+        <v>-552874.27606524</v>
       </c>
       <c r="V61" s="1">
-        <v>188301.5335918</v>
+        <v>119571.83333333</v>
       </c>
       <c r="W61" s="2"/>
       <c r="X61" s="1">
@@ -5072,10 +5077,10 @@
         <v>0.0</v>
       </c>
       <c r="AB61">
-        <v>-545342.0</v>
+        <v>-548091.0</v>
       </c>
       <c r="AC61" s="2">
-        <v>-72.402756047408</v>
+        <v>-114.59450455863</v>
       </c>
       <c r="AD61"/>
     </row>
@@ -5087,7 +5092,7 @@
         <v>72</v>
       </c>
       <c r="C62" s="4">
-        <v>18145.420509755</v>
+        <v>11522.363636364</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="5">
@@ -5116,11 +5121,11 @@
         <v>0</v>
       </c>
       <c r="P62" s="6">
-        <v>181454.20509755</v>
+        <v>115223.63636364</v>
       </c>
       <c r="Q62" s="2"/>
       <c r="R62" s="1">
-        <v>145163.36407804</v>
+        <v>0</v>
       </c>
       <c r="S62" s="2">
         <v>0.01</v>
@@ -5129,10 +5134,10 @@
         <v>0.0</v>
       </c>
       <c r="U62" s="6">
-        <v>-581969.62350928</v>
+        <v>-580517.9898685</v>
       </c>
       <c r="V62" s="1">
-        <v>181454.20509755</v>
+        <v>115223.63636364</v>
       </c>
       <c r="W62" s="2"/>
       <c r="X62" s="1">
@@ -5148,10 +5153,10 @@
         <v>0.0</v>
       </c>
       <c r="AB62">
-        <v>-573260.0</v>
+        <v>-575909.0</v>
       </c>
       <c r="AC62" s="2">
-        <v>-78.981360571363</v>
+        <v>-124.95461395231</v>
       </c>
       <c r="AD62"/>
     </row>
@@ -5163,7 +5168,7 @@
         <v>73</v>
       </c>
       <c r="C63" s="4">
-        <v>19234.145740341</v>
+        <v>12213.7</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="5">
@@ -5192,11 +5197,11 @@
         <v>0</v>
       </c>
       <c r="P63" s="6">
-        <v>173107.31166307</v>
+        <v>109923.3</v>
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" s="1">
-        <v>138485.84933046</v>
+        <v>0</v>
       </c>
       <c r="S63" s="2">
         <v>0.01</v>
@@ -5205,10 +5210,10 @@
         <v>0.0</v>
       </c>
       <c r="U63" s="6">
-        <v>-610928.74785523</v>
+        <v>-609543.88936193</v>
       </c>
       <c r="V63" s="1">
-        <v>173107.31166307</v>
+        <v>109923.3</v>
       </c>
       <c r="W63" s="2"/>
       <c r="X63" s="1">
@@ -5224,10 +5229,10 @@
         <v>0.0</v>
       </c>
       <c r="AB63">
-        <v>-602620.0</v>
+        <v>-605147.0</v>
       </c>
       <c r="AC63" s="2">
-        <v>-87.029830544206</v>
+        <v>-137.62937430008</v>
       </c>
       <c r="AD63"/>
     </row>
@@ -5239,7 +5244,7 @@
         <v>74</v>
       </c>
       <c r="C64" s="4">
-        <v>20388.194484761</v>
+        <v>12946.555555556</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="5">
@@ -5268,11 +5273,11 @@
         <v>0</v>
       </c>
       <c r="P64" s="6">
-        <v>163105.55587809</v>
+        <v>103572.44444444</v>
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" s="1">
-        <v>130484.44470247</v>
+        <v>0</v>
       </c>
       <c r="S64" s="2">
         <v>0.01</v>
@@ -5281,10 +5286,10 @@
         <v>0.0</v>
       </c>
       <c r="U64" s="6">
-        <v>-641325.92827705</v>
+        <v>-640021.08383003</v>
       </c>
       <c r="V64" s="1">
-        <v>163105.55587809</v>
+        <v>103572.44444444</v>
       </c>
       <c r="W64" s="2"/>
       <c r="X64" s="1">
@@ -5300,10 +5305,10 @@
         <v>0.0</v>
       </c>
       <c r="AB64">
-        <v>-633497.0</v>
+        <v>-635878.0</v>
       </c>
       <c r="AC64" s="2">
-        <v>-97.099236839225</v>
+        <v>-153.48628764408</v>
       </c>
       <c r="AD64"/>
     </row>
@@ -5315,7 +5320,7 @@
         <v>75</v>
       </c>
       <c r="C65" s="4">
-        <v>21611.486153846</v>
+        <v>13723.375</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="5">
@@ -5344,11 +5349,11 @@
         <v>0</v>
       </c>
       <c r="P65" s="6">
-        <v>151280.40307692</v>
+        <v>96063.625</v>
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" s="1">
-        <v>121024.32246154</v>
+        <v>0</v>
       </c>
       <c r="S65" s="2">
         <v>0.01</v>
@@ -5357,10 +5362,10 @@
         <v>0.0</v>
       </c>
       <c r="U65" s="6">
-        <v>-673232.38124615</v>
+        <v>-672022.13802153</v>
       </c>
       <c r="V65" s="1">
-        <v>151280.40307692</v>
+        <v>96063.625</v>
       </c>
       <c r="W65" s="2"/>
       <c r="X65" s="1">
@@ -5376,10 +5381,10 @@
         <v>0.0</v>
       </c>
       <c r="AB65">
-        <v>-665971.0</v>
+        <v>-668179.0</v>
       </c>
       <c r="AC65" s="2">
-        <v>-110.05572870885</v>
+        <v>-173.88970070617</v>
       </c>
       <c r="AD65"/>
     </row>
@@ -5391,7 +5396,7 @@
         <v>76</v>
       </c>
       <c r="C66" s="4">
-        <v>22908.175323077</v>
+        <v>14546.714285714</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="5">
@@ -5420,11 +5425,11 @@
         <v>0</v>
       </c>
       <c r="P66" s="6">
-        <v>137449.05193846</v>
+        <v>87280.285714286</v>
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" s="1">
-        <v>109959.24155077</v>
+        <v>0</v>
       </c>
       <c r="S66" s="2">
         <v>0.01</v>
@@ -5433,10 +5438,10 @@
         <v>0.0</v>
       </c>
       <c r="U66" s="6">
-        <v>-706722.83733812</v>
+        <v>-705623.24492261</v>
       </c>
       <c r="V66" s="1">
-        <v>137449.05193846</v>
+        <v>87280.285714286</v>
       </c>
       <c r="W66" s="2"/>
       <c r="X66" s="1">
@@ -5452,10 +5457,10 @@
         <v>0.0</v>
       </c>
       <c r="AB66">
-        <v>-700125.0</v>
+        <v>-702132.0</v>
       </c>
       <c r="AC66" s="2">
-        <v>-127.34263898624</v>
+        <v>-201.11414457855</v>
       </c>
       <c r="AD66"/>
     </row>
@@ -5467,7 +5472,7 @@
         <v>77</v>
       </c>
       <c r="C67" s="4">
-        <v>24282.665842462</v>
+        <v>15419.5</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="5">
@@ -5496,11 +5501,11 @@
         <v>0</v>
       </c>
       <c r="P67" s="6">
-        <v>121413.32921231</v>
+        <v>77097.5</v>
       </c>
       <c r="Q67" s="2"/>
       <c r="R67" s="1">
-        <v>97130.663369847</v>
+        <v>0</v>
       </c>
       <c r="S67" s="2">
         <v>0.01</v>
@@ -5509,10 +5514,10 @@
         <v>0.0</v>
       </c>
       <c r="U67" s="6">
-        <v>-741875.71380244</v>
+        <v>-740904.40716874</v>
       </c>
       <c r="V67" s="1">
-        <v>121413.32921231</v>
+        <v>77097.5</v>
       </c>
       <c r="W67" s="2"/>
       <c r="X67" s="1">
@@ -5528,10 +5533,10 @@
         <v>0.0</v>
       </c>
       <c r="AB67">
-        <v>-736047.0</v>
+        <v>-737820.0</v>
       </c>
       <c r="AC67" s="2">
-        <v>-151.5581124361</v>
+        <v>-239.24900288596</v>
       </c>
       <c r="AD67"/>
     </row>
@@ -5543,7 +5548,7 @@
         <v>78</v>
       </c>
       <c r="C68" s="4">
-        <v>25739.62579301</v>
+        <v>16344.6</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="5">
@@ -5572,11 +5577,11 @@
         <v>0</v>
       </c>
       <c r="P68" s="6">
-        <v>102958.50317204</v>
+        <v>65378.4</v>
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" s="1">
-        <v>82366.802537632</v>
+        <v>0</v>
       </c>
       <c r="S68" s="2">
         <v>0.01</v>
@@ -5585,10 +5590,10 @@
         <v>0.0</v>
       </c>
       <c r="U68" s="6">
-        <v>-778773.29555256</v>
+        <v>-777949.62752718</v>
       </c>
       <c r="V68" s="1">
-        <v>102958.50317204</v>
+        <v>65378.4</v>
       </c>
       <c r="W68" s="2"/>
       <c r="X68" s="1">
@@ -5604,10 +5609,10 @@
         <v>0.0</v>
       </c>
       <c r="AB68">
-        <v>-773832.0</v>
+        <v>-775335.0</v>
       </c>
       <c r="AC68" s="2">
-        <v>-187.89900206371</v>
+        <v>-296.47980066811</v>
       </c>
       <c r="AD68"/>
     </row>
@@ -5619,7 +5624,7 @@
         <v>79</v>
       </c>
       <c r="C69" s="4">
-        <v>27284.00334059</v>
+        <v>17325.25</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="5">
@@ -5648,11 +5653,11 @@
         <v>0</v>
       </c>
       <c r="P69" s="6">
-        <v>81852.01002177</v>
+        <v>51975.75</v>
       </c>
       <c r="Q69" s="2"/>
       <c r="R69" s="1">
-        <v>65481.608017416</v>
+        <v>0</v>
       </c>
       <c r="S69" s="2">
         <v>0.01</v>
@@ -5661,10 +5666,10 @@
         <v>0.0</v>
       </c>
       <c r="U69" s="6">
-        <v>-817501.92498371</v>
+        <v>-816847.10890354</v>
       </c>
       <c r="V69" s="1">
-        <v>81852.01002177</v>
+        <v>51975.75</v>
       </c>
       <c r="W69" s="2"/>
       <c r="X69" s="1">
@@ -5680,10 +5685,10 @@
         <v>0.0</v>
       </c>
       <c r="AB69">
-        <v>-813573.0</v>
+        <v>-814768.0</v>
       </c>
       <c r="AC69" s="2">
-        <v>-248.48901077188</v>
+        <v>-391.89814480792</v>
       </c>
       <c r="AD69"/>
     </row>
@@ -5695,7 +5700,7 @@
         <v>80</v>
       </c>
       <c r="C70" s="4">
-        <v>28921.043541025</v>
+        <v>18364.666666667</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="5">
@@ -5724,11 +5729,11 @@
         <v>0</v>
       </c>
       <c r="P70" s="6">
-        <v>57842.087082051</v>
+        <v>36729.333333333</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" s="1">
-        <v>46273.669665641</v>
+        <v>0</v>
       </c>
       <c r="S70" s="2">
         <v>0.01</v>
@@ -5737,10 +5742,10 @@
         <v>0.0</v>
       </c>
       <c r="U70" s="6">
-        <v>-858152.20104538</v>
+        <v>-857689.46434872</v>
       </c>
       <c r="V70" s="1">
-        <v>57842.087082051</v>
+        <v>36729.333333333</v>
       </c>
       <c r="W70" s="2"/>
       <c r="X70" s="1">
@@ -5756,10 +5761,10 @@
         <v>0.0</v>
       </c>
       <c r="AB70">
-        <v>-855375.0</v>
+        <v>-856220.0</v>
       </c>
       <c r="AC70" s="2">
-        <v>-369.70268672473</v>
+        <v>-582.79032199514</v>
       </c>
       <c r="AD70"/>
     </row>
@@ -5771,7 +5776,7 @@
         <v>81</v>
       </c>
       <c r="C71" s="4">
-        <v>30656.306153487</v>
+        <v>19466.5</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="5">
@@ -5800,11 +5805,11 @@
         <v>0</v>
       </c>
       <c r="P71" s="6">
-        <v>30656.306153487</v>
+        <v>19466.5</v>
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" s="1">
-        <v>24525.04492279</v>
+        <v>0</v>
       </c>
       <c r="S71" s="2">
         <v>0.01</v>
@@ -5813,10 +5818,10 @@
         <v>0.0</v>
       </c>
       <c r="U71" s="6">
-        <v>-900819.18801539</v>
+        <v>-900573.93756616</v>
       </c>
       <c r="V71" s="1">
-        <v>30656.306153487</v>
+        <v>19466.5</v>
       </c>
       <c r="W71" s="2"/>
       <c r="X71" s="1">
@@ -5832,10 +5837,10 @@
         <v>0.0</v>
       </c>
       <c r="AB71">
-        <v>-899348.0</v>
+        <v>-899795.0</v>
       </c>
       <c r="AC71" s="2">
-        <v>-733.41190838292</v>
+        <v>-1155.5685408265</v>
       </c>
       <c r="AD71"/>
     </row>
@@ -5847,7 +5852,7 @@
         <v>82</v>
       </c>
       <c r="C72" s="5">
-        <v>32495.684522696</v>
+        <v>20634.0</v>
       </c>
       <c r="D72" s="16"/>
       <c r="E72" s="5">
@@ -5880,7 +5885,7 @@
       </c>
       <c r="Q72" s="16"/>
       <c r="R72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S72" s="16"/>
       <c r="T72" s="5">
@@ -6369,7 +6374,7 @@
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S6" s="2"/>
       <c r="T6" s="1">
@@ -6433,7 +6438,7 @@
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S7" s="2"/>
       <c r="T7" s="1">
@@ -6497,7 +6502,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S8" s="2"/>
       <c r="T8" s="1">
@@ -6561,7 +6566,7 @@
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S9" s="2"/>
       <c r="T9" s="1">
@@ -6625,7 +6630,7 @@
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S10" s="2"/>
       <c r="T10" s="1">
@@ -6689,7 +6694,7 @@
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S11" s="2"/>
       <c r="T11" s="1">
@@ -6753,7 +6758,7 @@
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S12" s="2"/>
       <c r="T12" s="1">
@@ -6817,7 +6822,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S13" s="2"/>
       <c r="T13" s="1">
@@ -6881,7 +6886,7 @@
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S14" s="2"/>
       <c r="T14" s="1">
@@ -6945,7 +6950,7 @@
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S15" s="2"/>
       <c r="T15" s="1">
@@ -7009,7 +7014,7 @@
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S16" s="2"/>
       <c r="T16" s="1">
@@ -7073,7 +7078,7 @@
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S17" s="2"/>
       <c r="T17" s="1">
@@ -7137,7 +7142,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S18" s="2"/>
       <c r="T18" s="1">
@@ -7201,7 +7206,7 @@
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S19" s="2"/>
       <c r="T19" s="1">
@@ -7265,7 +7270,7 @@
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S20" s="2"/>
       <c r="T20" s="1">
@@ -7329,7 +7334,7 @@
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S21" s="2"/>
       <c r="T21" s="1">
@@ -7393,7 +7398,7 @@
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S22" s="2"/>
       <c r="T22" s="1">
@@ -7457,7 +7462,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S23" s="2"/>
       <c r="T23" s="1">
@@ -7521,7 +7526,7 @@
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S24" s="2"/>
       <c r="T24" s="1">
@@ -7585,7 +7590,7 @@
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S25" s="2"/>
       <c r="T25" s="1">
@@ -7649,7 +7654,7 @@
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S26" s="2"/>
       <c r="T26" s="1">
@@ -7713,7 +7718,7 @@
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S27" s="2"/>
       <c r="T27" s="1">
@@ -7777,7 +7782,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S28" s="2"/>
       <c r="T28" s="1">
@@ -7841,7 +7846,7 @@
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S29" s="2"/>
       <c r="T29" s="1">
@@ -7905,7 +7910,7 @@
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S30" s="2"/>
       <c r="T30" s="1">
@@ -7969,7 +7974,7 @@
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S31" s="2"/>
       <c r="T31" s="1">
@@ -8033,7 +8038,7 @@
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S32" s="2"/>
       <c r="T32" s="1">
@@ -8097,7 +8102,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S33" s="2"/>
       <c r="T33" s="1">
@@ -8161,7 +8166,7 @@
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S34" s="2"/>
       <c r="T34" s="1">
@@ -8225,7 +8230,7 @@
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S35" s="2"/>
       <c r="T35" s="1">
@@ -8289,7 +8294,7 @@
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S36" s="2"/>
       <c r="T36" s="1">
@@ -8353,7 +8358,7 @@
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S37" s="2"/>
       <c r="T37" s="1">
@@ -8421,7 +8426,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S38" s="2"/>
       <c r="T38" s="1">
@@ -8460,11 +8465,9 @@
         <v>49</v>
       </c>
       <c r="C39" s="8">
-        <v>504000.0</v>
-      </c>
-      <c r="D39" s="9">
-        <v>0.05</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="D39" s="9"/>
       <c r="E39" s="8">
         <v>189000.0</v>
       </c>
@@ -8489,31 +8492,31 @@
       </c>
       <c r="Q39" s="9"/>
       <c r="R39" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S39" s="9"/>
       <c r="T39" s="8">
         <v>0.0</v>
       </c>
       <c r="U39" s="8">
-        <v>315000.0</v>
+        <v>-189000.0</v>
       </c>
       <c r="V39" s="8">
         <v>0.0</v>
       </c>
       <c r="W39" s="9"/>
       <c r="X39" s="8">
-        <v>504000.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y39" s="8">
-        <v>2520000.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z39" s="8"/>
       <c r="AA39" s="7">
         <v>0.0</v>
       </c>
       <c r="AB39" s="7">
-        <v>315000.0</v>
+        <v>-189000.0</v>
       </c>
       <c r="AC39" s="9"/>
       <c r="AD39" s="7" t="s">
@@ -8528,11 +8531,9 @@
         <v>50</v>
       </c>
       <c r="C40" s="11">
-        <v>529200.0</v>
-      </c>
-      <c r="D40" s="12">
-        <v>0.05</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="D40" s="12"/>
       <c r="E40" s="11">
         <v>198450.0</v>
       </c>
@@ -8557,31 +8558,31 @@
       </c>
       <c r="Q40" s="12"/>
       <c r="R40" s="11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S40" s="12"/>
       <c r="T40" s="11">
         <v>0.0</v>
       </c>
       <c r="U40" s="11">
-        <v>330750.0</v>
+        <v>-198450.0</v>
       </c>
       <c r="V40" s="11">
         <v>0.0</v>
       </c>
       <c r="W40" s="12"/>
       <c r="X40" s="11">
-        <v>529200.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y40" s="11">
-        <v>2646000.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z40" s="11"/>
       <c r="AA40" s="10">
         <v>0.0</v>
       </c>
       <c r="AB40" s="10">
-        <v>330750.0</v>
+        <v>-198450.0</v>
       </c>
       <c r="AC40" s="12"/>
       <c r="AD40" s="10" t="s">
@@ -8596,11 +8597,9 @@
         <v>51</v>
       </c>
       <c r="C41" s="4">
-        <v>555660.0</v>
-      </c>
-      <c r="D41" s="2">
-        <v>0.05</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="D41" s="2"/>
       <c r="E41" s="5">
         <v>208372.5</v>
       </c>
@@ -8625,31 +8624,31 @@
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S41" s="2"/>
       <c r="T41" s="1">
         <v>0.0</v>
       </c>
       <c r="U41" s="6">
-        <v>347287.5</v>
+        <v>-208372.5</v>
       </c>
       <c r="V41" s="1">
         <v>0.0</v>
       </c>
       <c r="W41" s="2"/>
       <c r="X41" s="1">
-        <v>555660.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y41" s="1">
-        <v>2778300.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z41" s="1"/>
       <c r="AA41">
         <v>0.0</v>
       </c>
       <c r="AB41">
-        <v>347288.0</v>
+        <v>-208373.0</v>
       </c>
       <c r="AC41" s="2"/>
       <c r="AD41" t="s">
@@ -8664,11 +8663,9 @@
         <v>52</v>
       </c>
       <c r="C42" s="4">
-        <v>583443.0</v>
-      </c>
-      <c r="D42" s="2">
-        <v>0.05</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="D42" s="2"/>
       <c r="E42" s="5">
         <v>218791.125</v>
       </c>
@@ -8693,31 +8690,31 @@
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S42" s="2"/>
       <c r="T42" s="1">
         <v>0.0</v>
       </c>
       <c r="U42" s="6">
-        <v>364651.875</v>
+        <v>-218791.125</v>
       </c>
       <c r="V42" s="1">
         <v>0.0</v>
       </c>
       <c r="W42" s="2"/>
       <c r="X42" s="1">
-        <v>583443.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y42" s="1">
-        <v>2917215.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z42" s="1"/>
       <c r="AA42">
         <v>0.0</v>
       </c>
       <c r="AB42">
-        <v>364652.0</v>
+        <v>-218791.0</v>
       </c>
       <c r="AC42" s="2"/>
       <c r="AD42" t="s">
@@ -8732,11 +8729,9 @@
         <v>53</v>
       </c>
       <c r="C43" s="4">
-        <v>612615.15</v>
-      </c>
-      <c r="D43" s="2">
-        <v>0.05</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="D43" s="2"/>
       <c r="E43" s="5">
         <v>229730.68125</v>
       </c>
@@ -8761,31 +8756,31 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S43" s="2"/>
       <c r="T43" s="1">
         <v>0.0</v>
       </c>
       <c r="U43" s="6">
-        <v>382884.46875</v>
+        <v>-229730.68125</v>
       </c>
       <c r="V43" s="1">
         <v>0.0</v>
       </c>
       <c r="W43" s="2"/>
       <c r="X43" s="1">
-        <v>612615.15</v>
+        <v>0.0</v>
       </c>
       <c r="Y43" s="1">
-        <v>3063075.75</v>
+        <v>0.0</v>
       </c>
       <c r="Z43" s="1"/>
       <c r="AA43">
         <v>0.0</v>
       </c>
       <c r="AB43">
-        <v>382884.0</v>
+        <v>-229731.0</v>
       </c>
       <c r="AC43" s="2"/>
       <c r="AD43" t="s">
@@ -8800,11 +8795,9 @@
         <v>54</v>
       </c>
       <c r="C44" s="4">
-        <v>643245.9075</v>
-      </c>
-      <c r="D44" s="2">
-        <v>0.05</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="D44" s="2"/>
       <c r="E44" s="5">
         <v>241217.2153125</v>
       </c>
@@ -8829,31 +8822,31 @@
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S44" s="2"/>
       <c r="T44" s="1">
         <v>0.0</v>
       </c>
       <c r="U44" s="6">
-        <v>402028.6921875</v>
+        <v>-241217.2153125</v>
       </c>
       <c r="V44" s="1">
         <v>0.0</v>
       </c>
       <c r="W44" s="2"/>
       <c r="X44" s="1">
-        <v>643245.9075</v>
+        <v>0.0</v>
       </c>
       <c r="Y44" s="1">
-        <v>3216229.5375</v>
+        <v>0.0</v>
       </c>
       <c r="Z44" s="1"/>
       <c r="AA44">
         <v>0.0</v>
       </c>
       <c r="AB44">
-        <v>402029.0</v>
+        <v>-241217.0</v>
       </c>
       <c r="AC44" s="2"/>
       <c r="AD44" t="s">
@@ -8868,11 +8861,9 @@
         <v>55</v>
       </c>
       <c r="C45" s="4">
-        <v>675408.202875</v>
-      </c>
-      <c r="D45" s="2">
-        <v>0.05</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="D45" s="2"/>
       <c r="E45" s="5">
         <v>253278.07607813</v>
       </c>
@@ -8897,31 +8888,31 @@
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S45" s="2"/>
       <c r="T45" s="1">
         <v>0.0</v>
       </c>
       <c r="U45" s="6">
-        <v>422130.12679687</v>
+        <v>-253278.07607813</v>
       </c>
       <c r="V45" s="1">
         <v>0.0</v>
       </c>
       <c r="W45" s="2"/>
       <c r="X45" s="1">
-        <v>675408.202875</v>
+        <v>0.0</v>
       </c>
       <c r="Y45" s="1">
-        <v>3377041.014375</v>
+        <v>0.0</v>
       </c>
       <c r="Z45" s="1"/>
       <c r="AA45">
         <v>0.0</v>
       </c>
       <c r="AB45">
-        <v>422130.0</v>
+        <v>-253278.0</v>
       </c>
       <c r="AC45" s="2"/>
       <c r="AD45" t="s">
@@ -8936,11 +8927,9 @@
         <v>56</v>
       </c>
       <c r="C46" s="4">
-        <v>709178.61301875</v>
-      </c>
-      <c r="D46" s="2">
-        <v>0.05</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="D46" s="2"/>
       <c r="E46" s="5">
         <v>265941.97988204</v>
       </c>
@@ -8965,31 +8954,31 @@
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S46" s="2"/>
       <c r="T46" s="1">
         <v>0.0</v>
       </c>
       <c r="U46" s="6">
-        <v>443236.63313671</v>
+        <v>-265941.97988204</v>
       </c>
       <c r="V46" s="1">
         <v>0.0</v>
       </c>
       <c r="W46" s="2"/>
       <c r="X46" s="1">
-        <v>709178.61301875</v>
+        <v>0.0</v>
       </c>
       <c r="Y46" s="1">
-        <v>3545893.0650938</v>
+        <v>0.0</v>
       </c>
       <c r="Z46" s="1"/>
       <c r="AA46">
         <v>0.0</v>
       </c>
       <c r="AB46">
-        <v>443237.0</v>
+        <v>-265942.0</v>
       </c>
       <c r="AC46" s="2"/>
       <c r="AD46" t="s">
@@ -9004,11 +8993,9 @@
         <v>57</v>
       </c>
       <c r="C47" s="4">
-        <v>744637.54366969</v>
-      </c>
-      <c r="D47" s="2">
-        <v>0.05</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="D47" s="2"/>
       <c r="E47" s="5">
         <v>279239.07887614</v>
       </c>
@@ -9033,31 +9020,31 @@
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S47" s="2"/>
       <c r="T47" s="1">
         <v>0.0</v>
       </c>
       <c r="U47" s="6">
-        <v>465398.46479355</v>
+        <v>-279239.07887614</v>
       </c>
       <c r="V47" s="1">
         <v>0.0</v>
       </c>
       <c r="W47" s="2"/>
       <c r="X47" s="1">
-        <v>744637.54366969</v>
+        <v>0.0</v>
       </c>
       <c r="Y47" s="1">
-        <v>3723187.7183485</v>
+        <v>0.0</v>
       </c>
       <c r="Z47" s="1"/>
       <c r="AA47">
         <v>0.0</v>
       </c>
       <c r="AB47">
-        <v>465398.0</v>
+        <v>-279239.0</v>
       </c>
       <c r="AC47" s="2"/>
       <c r="AD47" t="s">
@@ -9072,11 +9059,9 @@
         <v>58</v>
       </c>
       <c r="C48" s="4">
-        <v>781869.42085317</v>
-      </c>
-      <c r="D48" s="2">
-        <v>0.05</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="D48" s="2"/>
       <c r="E48" s="5">
         <v>293201.03281995</v>
       </c>
@@ -9101,31 +9086,31 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S48" s="2"/>
       <c r="T48" s="1">
         <v>0.0</v>
       </c>
       <c r="U48" s="6">
-        <v>488668.38803322</v>
+        <v>-293201.03281995</v>
       </c>
       <c r="V48" s="1">
         <v>0.0</v>
       </c>
       <c r="W48" s="2"/>
       <c r="X48" s="1">
-        <v>781869.42085317</v>
+        <v>0.0</v>
       </c>
       <c r="Y48" s="1">
-        <v>3909347.1042659</v>
+        <v>0.0</v>
       </c>
       <c r="Z48" s="1"/>
       <c r="AA48">
         <v>0.0</v>
       </c>
       <c r="AB48">
-        <v>488668.0</v>
+        <v>-293201.0</v>
       </c>
       <c r="AC48" s="2"/>
       <c r="AD48" t="s">
@@ -9140,11 +9125,9 @@
         <v>59</v>
       </c>
       <c r="C49" s="4">
-        <v>820962.89189583</v>
-      </c>
-      <c r="D49" s="2">
-        <v>0.05</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="D49" s="2"/>
       <c r="E49" s="5">
         <v>307861.08446095</v>
       </c>
@@ -9169,31 +9152,31 @@
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S49" s="2"/>
       <c r="T49" s="1">
         <v>0.0</v>
       </c>
       <c r="U49" s="6">
-        <v>513101.80743488</v>
+        <v>-307861.08446095</v>
       </c>
       <c r="V49" s="1">
         <v>0.0</v>
       </c>
       <c r="W49" s="2"/>
       <c r="X49" s="1">
-        <v>820962.89189583</v>
+        <v>0.0</v>
       </c>
       <c r="Y49" s="1">
-        <v>4104814.4594792</v>
+        <v>0.0</v>
       </c>
       <c r="Z49" s="1"/>
       <c r="AA49">
         <v>0.0</v>
       </c>
       <c r="AB49">
-        <v>513102.0</v>
+        <v>-307861.0</v>
       </c>
       <c r="AC49" s="2"/>
       <c r="AD49" t="s">
@@ -9208,11 +9191,9 @@
         <v>60</v>
       </c>
       <c r="C50" s="4">
-        <v>862011.03649062</v>
-      </c>
-      <c r="D50" s="2">
-        <v>0.05</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="D50" s="2"/>
       <c r="E50" s="5">
         <v>323254.138684</v>
       </c>
@@ -9237,31 +9218,31 @@
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S50" s="2"/>
       <c r="T50" s="1">
         <v>0.0</v>
       </c>
       <c r="U50" s="6">
-        <v>538756.89780662</v>
+        <v>-323254.138684</v>
       </c>
       <c r="V50" s="1">
         <v>0.0</v>
       </c>
       <c r="W50" s="2"/>
       <c r="X50" s="1">
-        <v>862011.03649062</v>
+        <v>0.0</v>
       </c>
       <c r="Y50" s="1">
-        <v>4310055.1824531</v>
+        <v>0.0</v>
       </c>
       <c r="Z50" s="1"/>
       <c r="AA50">
         <v>0.0</v>
       </c>
       <c r="AB50">
-        <v>538757.0</v>
+        <v>-323254.0</v>
       </c>
       <c r="AC50" s="2"/>
       <c r="AD50" t="s">
@@ -9276,11 +9257,9 @@
         <v>61</v>
       </c>
       <c r="C51" s="4">
-        <v>905111.58831515</v>
-      </c>
-      <c r="D51" s="2">
-        <v>0.05</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="D51" s="2"/>
       <c r="E51" s="5">
         <v>339416.8456182</v>
       </c>
@@ -9305,31 +9284,31 @@
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S51" s="2"/>
       <c r="T51" s="1">
         <v>0.0</v>
       </c>
       <c r="U51" s="6">
-        <v>565694.74269695</v>
+        <v>-339416.8456182</v>
       </c>
       <c r="V51" s="1">
         <v>0.0</v>
       </c>
       <c r="W51" s="2"/>
       <c r="X51" s="1">
-        <v>905111.58831515</v>
+        <v>0.0</v>
       </c>
       <c r="Y51" s="1">
-        <v>4525557.9415757</v>
+        <v>0.0</v>
       </c>
       <c r="Z51" s="1"/>
       <c r="AA51">
         <v>0.0</v>
       </c>
       <c r="AB51">
-        <v>565695.0</v>
+        <v>-339417.0</v>
       </c>
       <c r="AC51" s="2"/>
       <c r="AD51" t="s">
@@ -9344,11 +9323,9 @@
         <v>62</v>
       </c>
       <c r="C52" s="4">
-        <v>950367.16773091</v>
-      </c>
-      <c r="D52" s="2">
-        <v>0.05</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="D52" s="2"/>
       <c r="E52" s="5">
         <v>356387.68789911</v>
       </c>
@@ -9373,31 +9350,31 @@
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S52" s="2"/>
       <c r="T52" s="1">
         <v>0.0</v>
       </c>
       <c r="U52" s="6">
-        <v>593979.4798318</v>
+        <v>-356387.68789911</v>
       </c>
       <c r="V52" s="1">
         <v>0.0</v>
       </c>
       <c r="W52" s="2"/>
       <c r="X52" s="1">
-        <v>950367.16773091</v>
+        <v>0.0</v>
       </c>
       <c r="Y52" s="1">
-        <v>4751835.8386545</v>
+        <v>0.0</v>
       </c>
       <c r="Z52" s="1"/>
       <c r="AA52">
         <v>0.0</v>
       </c>
       <c r="AB52">
-        <v>593979.0</v>
+        <v>-356388.0</v>
       </c>
       <c r="AC52" s="2"/>
       <c r="AD52" t="s">
@@ -9412,7 +9389,7 @@
         <v>63</v>
       </c>
       <c r="C53" s="13">
-        <v>11050.0425</v>
+        <v>7016.75</v>
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="13">
@@ -9439,7 +9416,7 @@
       </c>
       <c r="Q53" s="14"/>
       <c r="R53" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S53" s="14"/>
       <c r="T53" s="13">
@@ -9478,7 +9455,7 @@
         <v>64</v>
       </c>
       <c r="C54" s="4">
-        <v>11602.544625</v>
+        <v>7367.5789473684</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="5">
@@ -9505,7 +9482,7 @@
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S54" s="2"/>
       <c r="T54" s="1">
@@ -9544,7 +9521,7 @@
         <v>65</v>
       </c>
       <c r="C55" s="4">
-        <v>12182.67185625</v>
+        <v>7735.9444444444</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="5">
@@ -9571,7 +9548,7 @@
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S55" s="2"/>
       <c r="T55" s="1">
@@ -9610,7 +9587,7 @@
         <v>66</v>
       </c>
       <c r="C56" s="4">
-        <v>12791.805449062</v>
+        <v>8122.7647058823</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="5">
@@ -9637,7 +9614,7 @@
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S56" s="2"/>
       <c r="T56" s="1">
@@ -9676,7 +9653,7 @@
         <v>67</v>
       </c>
       <c r="C57" s="13">
-        <v>13559.313776006</v>
+        <v>8610.125</v>
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="13">
@@ -9703,7 +9680,7 @@
       </c>
       <c r="Q57" s="14"/>
       <c r="R57" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S57" s="14"/>
       <c r="T57" s="13">
@@ -9742,7 +9719,7 @@
         <v>68</v>
       </c>
       <c r="C58" s="4">
-        <v>14372.872602567</v>
+        <v>9126.7333333333</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="5">
@@ -9769,7 +9746,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S58" s="2"/>
       <c r="T58" s="1">
@@ -9808,7 +9785,7 @@
         <v>69</v>
       </c>
       <c r="C59" s="4">
-        <v>15235.244958721</v>
+        <v>9674.3571428571</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="5">
@@ -9835,7 +9812,7 @@
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S59" s="2"/>
       <c r="T59" s="1">
@@ -9874,7 +9851,7 @@
         <v>70</v>
       </c>
       <c r="C60" s="4">
-        <v>16149.359656244</v>
+        <v>10254.846153846</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="5">
@@ -9901,7 +9878,7 @@
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S60" s="2"/>
       <c r="T60" s="1">
@@ -9940,7 +9917,7 @@
         <v>71</v>
       </c>
       <c r="C61" s="4">
-        <v>17118.321235618</v>
+        <v>10870.166666667</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="5">
@@ -9967,7 +9944,7 @@
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S61" s="2"/>
       <c r="T61" s="1">
@@ -10006,7 +9983,7 @@
         <v>72</v>
       </c>
       <c r="C62" s="4">
-        <v>18145.420509755</v>
+        <v>11522.363636364</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="5">
@@ -10033,7 +10010,7 @@
       </c>
       <c r="Q62" s="2"/>
       <c r="R62" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S62" s="2"/>
       <c r="T62" s="1">
@@ -10072,7 +10049,7 @@
         <v>73</v>
       </c>
       <c r="C63" s="4">
-        <v>19234.145740341</v>
+        <v>12213.7</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="5">
@@ -10099,7 +10076,7 @@
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S63" s="2"/>
       <c r="T63" s="1">
@@ -10138,7 +10115,7 @@
         <v>74</v>
       </c>
       <c r="C64" s="4">
-        <v>20388.194484761</v>
+        <v>12946.555555556</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="5">
@@ -10165,7 +10142,7 @@
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S64" s="2"/>
       <c r="T64" s="1">
@@ -10204,7 +10181,7 @@
         <v>75</v>
       </c>
       <c r="C65" s="4">
-        <v>21611.486153846</v>
+        <v>13723.375</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="5">
@@ -10231,7 +10208,7 @@
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S65" s="2"/>
       <c r="T65" s="1">
@@ -10270,7 +10247,7 @@
         <v>76</v>
       </c>
       <c r="C66" s="4">
-        <v>22908.175323077</v>
+        <v>14546.714285714</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="5">
@@ -10297,7 +10274,7 @@
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S66" s="2"/>
       <c r="T66" s="1">
@@ -10336,7 +10313,7 @@
         <v>77</v>
       </c>
       <c r="C67" s="4">
-        <v>24282.665842462</v>
+        <v>15419.5</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="5">
@@ -10363,7 +10340,7 @@
       </c>
       <c r="Q67" s="2"/>
       <c r="R67" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S67" s="2"/>
       <c r="T67" s="1">
@@ -10402,7 +10379,7 @@
         <v>78</v>
       </c>
       <c r="C68" s="4">
-        <v>25739.62579301</v>
+        <v>16344.6</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="5">
@@ -10429,7 +10406,7 @@
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S68" s="2"/>
       <c r="T68" s="1">
@@ -10468,7 +10445,7 @@
         <v>79</v>
       </c>
       <c r="C69" s="4">
-        <v>27284.00334059</v>
+        <v>17325.25</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="5">
@@ -10495,7 +10472,7 @@
       </c>
       <c r="Q69" s="2"/>
       <c r="R69" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S69" s="2"/>
       <c r="T69" s="1">
@@ -10534,7 +10511,7 @@
         <v>80</v>
       </c>
       <c r="C70" s="4">
-        <v>28921.043541025</v>
+        <v>18364.666666667</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="5">
@@ -10561,7 +10538,7 @@
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S70" s="2"/>
       <c r="T70" s="1">
@@ -10600,7 +10577,7 @@
         <v>81</v>
       </c>
       <c r="C71" s="4">
-        <v>30656.306153487</v>
+        <v>19466.5</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="5">
@@ -10627,7 +10604,7 @@
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S71" s="2"/>
       <c r="T71" s="1">
@@ -10666,7 +10643,7 @@
         <v>82</v>
       </c>
       <c r="C72" s="5">
-        <v>32495.684522696</v>
+        <v>20634.0</v>
       </c>
       <c r="D72" s="16"/>
       <c r="E72" s="5">
@@ -10693,7 +10670,7 @@
       </c>
       <c r="Q72" s="16"/>
       <c r="R72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S72" s="16"/>
       <c r="T72" s="5">
@@ -11180,7 +11157,7 @@
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S6" s="2"/>
       <c r="T6" s="1">
@@ -11194,10 +11171,10 @@
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y6" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z6" s="1"/>
       <c r="AA6">
@@ -11244,7 +11221,7 @@
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S7" s="2"/>
       <c r="T7" s="1">
@@ -11258,10 +11235,10 @@
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y7" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z7" s="1"/>
       <c r="AA7">
@@ -11308,7 +11285,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S8" s="2"/>
       <c r="T8" s="1">
@@ -11322,10 +11299,10 @@
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y8" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z8" s="1"/>
       <c r="AA8">
@@ -11372,7 +11349,7 @@
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S9" s="2"/>
       <c r="T9" s="1">
@@ -11386,10 +11363,10 @@
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y9" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z9" s="1"/>
       <c r="AA9">
@@ -11436,7 +11413,7 @@
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S10" s="2"/>
       <c r="T10" s="1">
@@ -11450,10 +11427,10 @@
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y10" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z10" s="1"/>
       <c r="AA10">
@@ -11500,7 +11477,7 @@
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S11" s="2"/>
       <c r="T11" s="1">
@@ -11514,10 +11491,10 @@
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y11" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z11" s="1"/>
       <c r="AA11">
@@ -11564,7 +11541,7 @@
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S12" s="2"/>
       <c r="T12" s="1">
@@ -11578,10 +11555,10 @@
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y12" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z12" s="1"/>
       <c r="AA12">
@@ -11628,7 +11605,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S13" s="2"/>
       <c r="T13" s="1">
@@ -11642,10 +11619,10 @@
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y13" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z13" s="1"/>
       <c r="AA13">
@@ -11692,7 +11669,7 @@
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S14" s="2"/>
       <c r="T14" s="1">
@@ -11706,10 +11683,10 @@
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y14" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z14" s="1"/>
       <c r="AA14">
@@ -11756,7 +11733,7 @@
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S15" s="2"/>
       <c r="T15" s="1">
@@ -11770,10 +11747,10 @@
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y15" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z15" s="1"/>
       <c r="AA15">
@@ -11820,7 +11797,7 @@
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S16" s="2"/>
       <c r="T16" s="1">
@@ -11834,10 +11811,10 @@
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y16" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z16" s="1"/>
       <c r="AA16">
@@ -11884,7 +11861,7 @@
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S17" s="2"/>
       <c r="T17" s="1">
@@ -11898,10 +11875,10 @@
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y17" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z17" s="1"/>
       <c r="AA17">
@@ -11948,7 +11925,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S18" s="2"/>
       <c r="T18" s="1">
@@ -11962,10 +11939,10 @@
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y18" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z18" s="1"/>
       <c r="AA18">
@@ -12012,7 +11989,7 @@
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S19" s="2"/>
       <c r="T19" s="1">
@@ -12026,10 +12003,10 @@
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y19" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z19" s="1"/>
       <c r="AA19">
@@ -12076,7 +12053,7 @@
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S20" s="2"/>
       <c r="T20" s="1">
@@ -12090,10 +12067,10 @@
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y20" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z20" s="1"/>
       <c r="AA20">
@@ -12140,7 +12117,7 @@
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S21" s="2"/>
       <c r="T21" s="1">
@@ -12154,10 +12131,10 @@
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y21" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z21" s="1"/>
       <c r="AA21">
@@ -12204,7 +12181,7 @@
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S22" s="2"/>
       <c r="T22" s="1">
@@ -12218,10 +12195,10 @@
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y22" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z22" s="1"/>
       <c r="AA22">
@@ -12268,7 +12245,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S23" s="2"/>
       <c r="T23" s="1">
@@ -12282,10 +12259,10 @@
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y23" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z23" s="1"/>
       <c r="AA23">
@@ -12332,7 +12309,7 @@
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S24" s="2"/>
       <c r="T24" s="1">
@@ -12346,10 +12323,10 @@
       </c>
       <c r="W24" s="2"/>
       <c r="X24" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y24" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z24" s="1"/>
       <c r="AA24">
@@ -12396,7 +12373,7 @@
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S25" s="2"/>
       <c r="T25" s="1">
@@ -12410,10 +12387,10 @@
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y25" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z25" s="1"/>
       <c r="AA25">
@@ -12460,7 +12437,7 @@
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S26" s="2"/>
       <c r="T26" s="1">
@@ -12474,10 +12451,10 @@
       </c>
       <c r="W26" s="2"/>
       <c r="X26" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y26" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z26" s="1"/>
       <c r="AA26">
@@ -12524,7 +12501,7 @@
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S27" s="2"/>
       <c r="T27" s="1">
@@ -12538,10 +12515,10 @@
       </c>
       <c r="W27" s="2"/>
       <c r="X27" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y27" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z27" s="1"/>
       <c r="AA27">
@@ -12588,7 +12565,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S28" s="2"/>
       <c r="T28" s="1">
@@ -12602,10 +12579,10 @@
       </c>
       <c r="W28" s="2"/>
       <c r="X28" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y28" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z28" s="1"/>
       <c r="AA28">
@@ -12652,7 +12629,7 @@
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S29" s="2"/>
       <c r="T29" s="1">
@@ -12666,10 +12643,10 @@
       </c>
       <c r="W29" s="2"/>
       <c r="X29" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y29" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z29" s="1"/>
       <c r="AA29">
@@ -12716,7 +12693,7 @@
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S30" s="2"/>
       <c r="T30" s="1">
@@ -12730,10 +12707,10 @@
       </c>
       <c r="W30" s="2"/>
       <c r="X30" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y30" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z30" s="1"/>
       <c r="AA30">
@@ -12780,7 +12757,7 @@
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S31" s="2"/>
       <c r="T31" s="1">
@@ -12794,10 +12771,10 @@
       </c>
       <c r="W31" s="2"/>
       <c r="X31" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y31" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z31" s="1"/>
       <c r="AA31">
@@ -12844,7 +12821,7 @@
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S32" s="2"/>
       <c r="T32" s="1">
@@ -12858,10 +12835,10 @@
       </c>
       <c r="W32" s="2"/>
       <c r="X32" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y32" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z32" s="1"/>
       <c r="AA32">
@@ -12908,7 +12885,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S33" s="2"/>
       <c r="T33" s="1">
@@ -12922,10 +12899,10 @@
       </c>
       <c r="W33" s="2"/>
       <c r="X33" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y33" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z33" s="1"/>
       <c r="AA33">
@@ -12972,7 +12949,7 @@
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S34" s="2"/>
       <c r="T34" s="1">
@@ -12986,10 +12963,10 @@
       </c>
       <c r="W34" s="2"/>
       <c r="X34" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y34" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z34" s="1"/>
       <c r="AA34">
@@ -13036,7 +13013,7 @@
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S35" s="2"/>
       <c r="T35" s="1">
@@ -13050,10 +13027,10 @@
       </c>
       <c r="W35" s="2"/>
       <c r="X35" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y35" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z35" s="1"/>
       <c r="AA35">
@@ -13100,7 +13077,7 @@
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S36" s="2"/>
       <c r="T36" s="1">
@@ -13114,10 +13091,10 @@
       </c>
       <c r="W36" s="2"/>
       <c r="X36" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y36" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z36" s="1"/>
       <c r="AA36">
@@ -13164,7 +13141,7 @@
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S37" s="2"/>
       <c r="T37" s="1">
@@ -13178,10 +13155,10 @@
       </c>
       <c r="W37" s="2"/>
       <c r="X37" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y37" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z37" s="1"/>
       <c r="AA37">
@@ -13224,13 +13201,17 @@
         <v>0</v>
       </c>
       <c r="P38" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="Q38" s="2"/>
+        <v>50000.0</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>0.15</v>
+      </c>
       <c r="R38" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="S38" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="S38" s="2">
+        <v>0.01</v>
+      </c>
       <c r="T38" s="1">
         <v>0.0</v>
       </c>
@@ -13238,25 +13219,25 @@
         <v>0.0</v>
       </c>
       <c r="V38" s="1">
-        <v>0.0</v>
+        <v>50000.0</v>
       </c>
       <c r="W38" s="2"/>
       <c r="X38" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y38" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z38" s="1"/>
       <c r="AA38">
         <v>0.0</v>
       </c>
       <c r="AB38">
-        <v>0.0</v>
+        <v>2000.0</v>
       </c>
       <c r="AC38" s="2"/>
       <c r="AD38" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:31">
@@ -13288,43 +13269,43 @@
         <v>0</v>
       </c>
       <c r="P39" s="8">
-        <v>100000.0</v>
+        <v>63500.0</v>
       </c>
       <c r="Q39" s="9">
         <v>0.15</v>
       </c>
       <c r="R39" s="8">
-        <v>80000.0</v>
+        <v>0</v>
       </c>
       <c r="S39" s="9">
         <v>0.01</v>
       </c>
       <c r="T39" s="8">
-        <v>800.0</v>
+        <v>0.0</v>
       </c>
       <c r="U39" s="8">
-        <v>-800.0</v>
+        <v>0.0</v>
       </c>
       <c r="V39" s="8">
-        <v>100000.0</v>
+        <v>63500.0</v>
       </c>
       <c r="W39" s="9"/>
       <c r="X39" s="8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y39" s="8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z39" s="8"/>
       <c r="AA39" s="7">
         <v>0.0</v>
       </c>
       <c r="AB39" s="7">
-        <v>4000.0</v>
+        <v>2540.0</v>
       </c>
       <c r="AC39" s="9"/>
       <c r="AD39" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:31">
@@ -13356,43 +13337,43 @@
         <v>0</v>
       </c>
       <c r="P40" s="11">
-        <v>115000.0</v>
+        <v>73025.0</v>
       </c>
       <c r="Q40" s="12">
         <v>0.05</v>
       </c>
       <c r="R40" s="11">
-        <v>92000.0</v>
+        <v>0</v>
       </c>
       <c r="S40" s="12">
         <v>0.01</v>
       </c>
       <c r="T40" s="11">
-        <v>920.0</v>
+        <v>0.0</v>
       </c>
       <c r="U40" s="11">
-        <v>-920.0</v>
+        <v>0.0</v>
       </c>
       <c r="V40" s="11">
-        <v>115000.0</v>
+        <v>73025.0</v>
       </c>
       <c r="W40" s="12"/>
       <c r="X40" s="11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y40" s="11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z40" s="11"/>
       <c r="AA40" s="10">
         <v>0.0</v>
       </c>
       <c r="AB40" s="10">
-        <v>4600.0</v>
+        <v>2921.0</v>
       </c>
       <c r="AC40" s="12"/>
       <c r="AD40" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:31">
@@ -13424,43 +13405,43 @@
         <v>0</v>
       </c>
       <c r="P41" s="6">
-        <v>120750.0</v>
+        <v>76676.0</v>
       </c>
       <c r="Q41" s="2">
         <v>0.06</v>
       </c>
       <c r="R41" s="1">
-        <v>96600.0</v>
+        <v>0</v>
       </c>
       <c r="S41" s="2">
         <v>0.01</v>
       </c>
       <c r="T41" s="1">
-        <v>966.0</v>
+        <v>0.0</v>
       </c>
       <c r="U41" s="6">
-        <v>-966.0</v>
+        <v>0.0</v>
       </c>
       <c r="V41" s="1">
-        <v>120750.0</v>
+        <v>76676.0</v>
       </c>
       <c r="W41" s="2"/>
       <c r="X41" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y41" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z41" s="1"/>
       <c r="AA41">
         <v>0.0</v>
       </c>
       <c r="AB41">
-        <v>4830.0</v>
+        <v>3067.0</v>
       </c>
       <c r="AC41" s="2"/>
       <c r="AD41" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:31">
@@ -13492,43 +13473,43 @@
         <v>0</v>
       </c>
       <c r="P42" s="6">
-        <v>127995.0</v>
+        <v>81277.0</v>
       </c>
       <c r="Q42" s="2">
         <v>0.05</v>
       </c>
       <c r="R42" s="1">
-        <v>102396.0</v>
+        <v>0</v>
       </c>
       <c r="S42" s="2">
         <v>0.01</v>
       </c>
       <c r="T42" s="1">
-        <v>1023.96</v>
+        <v>0.0</v>
       </c>
       <c r="U42" s="6">
-        <v>-1023.96</v>
+        <v>0.0</v>
       </c>
       <c r="V42" s="1">
-        <v>127995.0</v>
+        <v>81277.0</v>
       </c>
       <c r="W42" s="2"/>
       <c r="X42" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y42" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z42" s="1"/>
       <c r="AA42">
         <v>0.0</v>
       </c>
       <c r="AB42">
-        <v>5120.0</v>
+        <v>3251.0</v>
       </c>
       <c r="AC42" s="2"/>
       <c r="AD42" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:31">
@@ -13560,43 +13541,43 @@
         <v>0</v>
       </c>
       <c r="P43" s="6">
-        <v>134395.0</v>
+        <v>85341.0</v>
       </c>
       <c r="Q43" s="2">
         <v>0.06</v>
       </c>
       <c r="R43" s="1">
-        <v>107516.0</v>
+        <v>0</v>
       </c>
       <c r="S43" s="2">
         <v>0.01</v>
       </c>
       <c r="T43" s="1">
-        <v>1075.16</v>
+        <v>0.0</v>
       </c>
       <c r="U43" s="6">
-        <v>-1075.16</v>
+        <v>0.0</v>
       </c>
       <c r="V43" s="1">
-        <v>134395.0</v>
+        <v>85341.0</v>
       </c>
       <c r="W43" s="2"/>
       <c r="X43" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y43" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z43" s="1"/>
       <c r="AA43">
         <v>0.0</v>
       </c>
       <c r="AB43">
-        <v>5376.0</v>
+        <v>3414.0</v>
       </c>
       <c r="AC43" s="2"/>
       <c r="AD43" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:31">
@@ -13628,43 +13609,43 @@
         <v>0</v>
       </c>
       <c r="P44" s="6">
-        <v>142459.0</v>
+        <v>90461.0</v>
       </c>
       <c r="Q44" s="2">
         <v>0.05</v>
       </c>
       <c r="R44" s="1">
-        <v>113967.2</v>
+        <v>0</v>
       </c>
       <c r="S44" s="2">
         <v>0.01</v>
       </c>
       <c r="T44" s="1">
-        <v>1139.672</v>
+        <v>0.0</v>
       </c>
       <c r="U44" s="6">
-        <v>-1139.672</v>
+        <v>0.0</v>
       </c>
       <c r="V44" s="1">
-        <v>142459.0</v>
+        <v>90461.0</v>
       </c>
       <c r="W44" s="2"/>
       <c r="X44" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y44" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z44" s="1"/>
       <c r="AA44">
         <v>0.0</v>
       </c>
       <c r="AB44">
-        <v>5698.0</v>
+        <v>3618.0</v>
       </c>
       <c r="AC44" s="2"/>
       <c r="AD44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:31">
@@ -13696,43 +13677,43 @@
         <v>0</v>
       </c>
       <c r="P45" s="6">
-        <v>149582.0</v>
+        <v>94984.0</v>
       </c>
       <c r="Q45" s="2">
         <v>0.05</v>
       </c>
       <c r="R45" s="1">
-        <v>119665.6</v>
+        <v>0</v>
       </c>
       <c r="S45" s="2">
         <v>0.01</v>
       </c>
       <c r="T45" s="1">
-        <v>1196.656</v>
+        <v>0.0</v>
       </c>
       <c r="U45" s="6">
-        <v>-1196.656</v>
+        <v>0.0</v>
       </c>
       <c r="V45" s="1">
-        <v>149582.0</v>
+        <v>94984.0</v>
       </c>
       <c r="W45" s="2"/>
       <c r="X45" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y45" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z45" s="1"/>
       <c r="AA45">
         <v>0.0</v>
       </c>
       <c r="AB45">
-        <v>5983.0</v>
+        <v>3799.0</v>
       </c>
       <c r="AC45" s="2"/>
       <c r="AD45" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:31">
@@ -13764,43 +13745,43 @@
         <v>0</v>
       </c>
       <c r="P46" s="6">
-        <v>157061.0</v>
+        <v>99733.0</v>
       </c>
       <c r="Q46" s="2">
         <v>0.05</v>
       </c>
       <c r="R46" s="1">
-        <v>125648.8</v>
+        <v>0</v>
       </c>
       <c r="S46" s="2">
         <v>0.01</v>
       </c>
       <c r="T46" s="1">
-        <v>1256.488</v>
+        <v>0.0</v>
       </c>
       <c r="U46" s="6">
-        <v>-1256.488</v>
+        <v>0.0</v>
       </c>
       <c r="V46" s="1">
-        <v>157061.0</v>
+        <v>99733.0</v>
       </c>
       <c r="W46" s="2"/>
       <c r="X46" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y46" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z46" s="1"/>
       <c r="AA46">
         <v>0.0</v>
       </c>
       <c r="AB46">
-        <v>6282.0</v>
+        <v>3989.0</v>
       </c>
       <c r="AC46" s="2"/>
       <c r="AD46" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:31">
@@ -13832,43 +13813,43 @@
         <v>0</v>
       </c>
       <c r="P47" s="6">
-        <v>164914.0</v>
+        <v>104720.0</v>
       </c>
       <c r="Q47" s="2">
         <v>0.05</v>
       </c>
       <c r="R47" s="1">
-        <v>131931.2</v>
+        <v>0</v>
       </c>
       <c r="S47" s="2">
         <v>0.01</v>
       </c>
       <c r="T47" s="1">
-        <v>1319.312</v>
+        <v>0.0</v>
       </c>
       <c r="U47" s="6">
-        <v>-1319.312</v>
+        <v>0.0</v>
       </c>
       <c r="V47" s="1">
-        <v>164914.0</v>
+        <v>104720.0</v>
       </c>
       <c r="W47" s="2"/>
       <c r="X47" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y47" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z47" s="1"/>
       <c r="AA47">
         <v>0.0</v>
       </c>
       <c r="AB47">
-        <v>6597.0</v>
+        <v>4189.0</v>
       </c>
       <c r="AC47" s="2"/>
       <c r="AD47" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:31">
@@ -13900,43 +13881,43 @@
         <v>0</v>
       </c>
       <c r="P48" s="6">
-        <v>173160.0</v>
+        <v>109956.0</v>
       </c>
       <c r="Q48" s="2">
         <v>0.05</v>
       </c>
       <c r="R48" s="1">
-        <v>138528.0</v>
+        <v>0</v>
       </c>
       <c r="S48" s="2">
         <v>0.01</v>
       </c>
       <c r="T48" s="1">
-        <v>1385.28</v>
+        <v>0.0</v>
       </c>
       <c r="U48" s="6">
-        <v>-1385.28</v>
+        <v>0.0</v>
       </c>
       <c r="V48" s="1">
-        <v>173160.0</v>
+        <v>109956.0</v>
       </c>
       <c r="W48" s="2"/>
       <c r="X48" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y48" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z48" s="1"/>
       <c r="AA48">
         <v>0.0</v>
       </c>
       <c r="AB48">
-        <v>6926.0</v>
+        <v>4398.0</v>
       </c>
       <c r="AC48" s="2"/>
       <c r="AD48" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:31">
@@ -13968,43 +13949,43 @@
         <v>0</v>
       </c>
       <c r="P49" s="6">
-        <v>181818.0</v>
+        <v>115454.0</v>
       </c>
       <c r="Q49" s="2">
         <v>0.05</v>
       </c>
       <c r="R49" s="1">
-        <v>145454.4</v>
+        <v>0</v>
       </c>
       <c r="S49" s="2">
         <v>0.01</v>
       </c>
       <c r="T49" s="1">
-        <v>1454.544</v>
+        <v>0.0</v>
       </c>
       <c r="U49" s="6">
-        <v>-1454.544</v>
+        <v>0.0</v>
       </c>
       <c r="V49" s="1">
-        <v>181818.0</v>
+        <v>115454.0</v>
       </c>
       <c r="W49" s="2"/>
       <c r="X49" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y49" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z49" s="1"/>
       <c r="AA49">
         <v>0.0</v>
       </c>
       <c r="AB49">
-        <v>7273.0</v>
+        <v>4618.0</v>
       </c>
       <c r="AC49" s="2"/>
       <c r="AD49" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:31">
@@ -14036,43 +14017,43 @@
         <v>0</v>
       </c>
       <c r="P50" s="6">
-        <v>190909.0</v>
+        <v>121227.0</v>
       </c>
       <c r="Q50" s="2">
         <v>0.05</v>
       </c>
       <c r="R50" s="1">
-        <v>152727.2</v>
+        <v>0</v>
       </c>
       <c r="S50" s="2">
         <v>0.01</v>
       </c>
       <c r="T50" s="1">
-        <v>1527.272</v>
+        <v>0.0</v>
       </c>
       <c r="U50" s="6">
-        <v>-1527.272</v>
+        <v>0.0</v>
       </c>
       <c r="V50" s="1">
-        <v>190909.0</v>
+        <v>121227.0</v>
       </c>
       <c r="W50" s="2"/>
       <c r="X50" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y50" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z50" s="1"/>
       <c r="AA50">
         <v>0.0</v>
       </c>
       <c r="AB50">
-        <v>7636.0</v>
+        <v>4849.0</v>
       </c>
       <c r="AC50" s="2"/>
       <c r="AD50" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="1:31">
@@ -14104,43 +14085,43 @@
         <v>0</v>
       </c>
       <c r="P51" s="6">
-        <v>200454.0</v>
+        <v>127288.0</v>
       </c>
       <c r="Q51" s="2">
         <v>0.05</v>
       </c>
       <c r="R51" s="1">
-        <v>160363.2</v>
+        <v>0</v>
       </c>
       <c r="S51" s="2">
         <v>0.01</v>
       </c>
       <c r="T51" s="1">
-        <v>1603.632</v>
+        <v>0.0</v>
       </c>
       <c r="U51" s="6">
-        <v>-1603.632</v>
+        <v>0.0</v>
       </c>
       <c r="V51" s="1">
-        <v>200454.0</v>
+        <v>127288.0</v>
       </c>
       <c r="W51" s="2"/>
       <c r="X51" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y51" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z51" s="1"/>
       <c r="AA51">
         <v>0.0</v>
       </c>
       <c r="AB51">
-        <v>8018.0</v>
+        <v>5092.0</v>
       </c>
       <c r="AC51" s="2"/>
       <c r="AD51" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:31">
@@ -14172,43 +14153,43 @@
         <v>0</v>
       </c>
       <c r="P52" s="6">
-        <v>210477.0</v>
+        <v>133652.0</v>
       </c>
       <c r="Q52" s="2">
         <v>0.05</v>
       </c>
       <c r="R52" s="1">
-        <v>168381.6</v>
+        <v>0</v>
       </c>
       <c r="S52" s="2">
         <v>0.01</v>
       </c>
       <c r="T52" s="1">
-        <v>1683.816</v>
+        <v>0.0</v>
       </c>
       <c r="U52" s="6">
-        <v>-1683.816</v>
+        <v>0.0</v>
       </c>
       <c r="V52" s="1">
-        <v>210477.0</v>
+        <v>133652.0</v>
       </c>
       <c r="W52" s="2"/>
       <c r="X52" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y52" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z52" s="1"/>
       <c r="AA52">
         <v>0.0</v>
       </c>
       <c r="AB52">
-        <v>8419.0</v>
+        <v>5346.0</v>
       </c>
       <c r="AC52" s="2"/>
       <c r="AD52" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:31">
@@ -14240,43 +14221,43 @@
         <v>0</v>
       </c>
       <c r="P53" s="13">
-        <v>209950.8075</v>
+        <v>133318.25</v>
       </c>
       <c r="Q53" s="14">
         <v>0.05</v>
       </c>
       <c r="R53" s="13">
-        <v>167960.646</v>
+        <v>0</v>
       </c>
       <c r="S53" s="14">
         <v>0.01</v>
       </c>
       <c r="T53" s="13">
-        <v>1679.60646</v>
+        <v>0.0</v>
       </c>
       <c r="U53" s="13">
-        <v>-1679.60646</v>
+        <v>0.0</v>
       </c>
       <c r="V53" s="13">
-        <v>209950.8075</v>
+        <v>133318.25</v>
       </c>
       <c r="W53" s="14"/>
       <c r="X53" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y53" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z53" s="13"/>
       <c r="AA53" s="3">
         <v>0.0</v>
       </c>
       <c r="AB53" s="3">
-        <v>8398.0</v>
+        <v>5333.0</v>
       </c>
       <c r="AC53" s="14"/>
       <c r="AD53" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:31">
@@ -14308,43 +14289,43 @@
         <v>0</v>
       </c>
       <c r="P54" s="6">
-        <v>208845.80325</v>
+        <v>132616.42105263</v>
       </c>
       <c r="Q54" s="2">
         <v>0.05</v>
       </c>
       <c r="R54" s="1">
-        <v>167076.6426</v>
+        <v>0</v>
       </c>
       <c r="S54" s="2">
         <v>0.01</v>
       </c>
       <c r="T54" s="1">
-        <v>1670.766426</v>
+        <v>0.0</v>
       </c>
       <c r="U54" s="6">
-        <v>-1670.766426</v>
+        <v>0.0</v>
       </c>
       <c r="V54" s="1">
-        <v>208845.80325</v>
+        <v>132616.42105263</v>
       </c>
       <c r="W54" s="2"/>
       <c r="X54" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y54" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z54" s="1"/>
       <c r="AA54">
         <v>0.0</v>
       </c>
       <c r="AB54">
-        <v>8354.0</v>
+        <v>5305.0</v>
       </c>
       <c r="AC54" s="2"/>
       <c r="AD54" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55" spans="1:31">
@@ -14376,43 +14357,43 @@
         <v>0</v>
       </c>
       <c r="P55" s="6">
-        <v>207105.42155625</v>
+        <v>131511.05555556</v>
       </c>
       <c r="Q55" s="2">
         <v>0.05</v>
       </c>
       <c r="R55" s="1">
-        <v>165684.337245</v>
+        <v>0</v>
       </c>
       <c r="S55" s="2">
         <v>0.01</v>
       </c>
       <c r="T55" s="1">
-        <v>1656.84337245</v>
+        <v>0.0</v>
       </c>
       <c r="U55" s="6">
-        <v>-1656.84337245</v>
+        <v>0.0</v>
       </c>
       <c r="V55" s="1">
-        <v>207105.42155625</v>
+        <v>131511.05555556</v>
       </c>
       <c r="W55" s="2"/>
       <c r="X55" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y55" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z55" s="1"/>
       <c r="AA55">
         <v>0.0</v>
       </c>
       <c r="AB55">
-        <v>8284.0</v>
+        <v>5260.0</v>
       </c>
       <c r="AC55" s="2"/>
       <c r="AD55" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="56" spans="1:31">
@@ -14444,43 +14425,43 @@
         <v>0</v>
       </c>
       <c r="P56" s="6">
-        <v>204668.887185</v>
+        <v>129964.23529412</v>
       </c>
       <c r="Q56" s="2">
         <v>0.06</v>
       </c>
       <c r="R56" s="1">
-        <v>163735.109748</v>
+        <v>0</v>
       </c>
       <c r="S56" s="2">
         <v>0.01</v>
       </c>
       <c r="T56" s="1">
-        <v>1637.35109748</v>
+        <v>0.0</v>
       </c>
       <c r="U56" s="6">
-        <v>-1637.35109748</v>
+        <v>0.0</v>
       </c>
       <c r="V56" s="1">
-        <v>204668.887185</v>
+        <v>129964.23529412</v>
       </c>
       <c r="W56" s="2"/>
       <c r="X56" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y56" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z56" s="1"/>
       <c r="AA56">
         <v>0.0</v>
       </c>
       <c r="AB56">
-        <v>8187.0</v>
+        <v>5199.0</v>
       </c>
       <c r="AC56" s="2"/>
       <c r="AD56" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57" spans="1:31">
@@ -14512,43 +14493,43 @@
         <v>0</v>
       </c>
       <c r="P57" s="13">
-        <v>203389.70664009</v>
+        <v>129151.875</v>
       </c>
       <c r="Q57" s="14">
         <v>0.06</v>
       </c>
       <c r="R57" s="13">
-        <v>162711.76531208</v>
+        <v>0</v>
       </c>
       <c r="S57" s="14">
         <v>0.01</v>
       </c>
       <c r="T57" s="13">
-        <v>1627.1176531207</v>
+        <v>0.0</v>
       </c>
       <c r="U57" s="13">
-        <v>-1627.1176531207</v>
+        <v>0.0</v>
       </c>
       <c r="V57" s="13">
-        <v>203389.70664009</v>
+        <v>129151.875</v>
       </c>
       <c r="W57" s="14"/>
       <c r="X57" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y57" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z57" s="13"/>
       <c r="AA57" s="3">
         <v>0.0</v>
       </c>
       <c r="AB57" s="3">
-        <v>8136.0</v>
+        <v>5166.0</v>
       </c>
       <c r="AC57" s="14"/>
       <c r="AD57" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:31">
@@ -14580,43 +14561,43 @@
         <v>0</v>
       </c>
       <c r="P58" s="6">
-        <v>201220.21643593</v>
+        <v>127774.26666667</v>
       </c>
       <c r="Q58" s="2">
         <v>0.06</v>
       </c>
       <c r="R58" s="1">
-        <v>160976.17314875</v>
+        <v>0</v>
       </c>
       <c r="S58" s="2">
         <v>0.01</v>
       </c>
       <c r="T58" s="1">
-        <v>1609.7617314875</v>
+        <v>0.0</v>
       </c>
       <c r="U58" s="6">
-        <v>-1609.7617314875</v>
+        <v>0.0</v>
       </c>
       <c r="V58" s="1">
-        <v>201220.21643593</v>
+        <v>127774.26666667</v>
       </c>
       <c r="W58" s="2"/>
       <c r="X58" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y58" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z58" s="1"/>
       <c r="AA58">
         <v>0.0</v>
       </c>
       <c r="AB58">
-        <v>8049.0</v>
+        <v>5111.0</v>
       </c>
       <c r="AC58" s="2"/>
       <c r="AD58" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:31">
@@ -14648,43 +14629,43 @@
         <v>0</v>
       </c>
       <c r="P59" s="6">
-        <v>198058.18446337</v>
+        <v>125766.64285714</v>
       </c>
       <c r="Q59" s="2">
         <v>0.06</v>
       </c>
       <c r="R59" s="1">
-        <v>158446.5475707</v>
+        <v>0</v>
       </c>
       <c r="S59" s="2">
         <v>0.01</v>
       </c>
       <c r="T59" s="1">
-        <v>1584.465475707</v>
+        <v>0.0</v>
       </c>
       <c r="U59" s="6">
-        <v>-1584.465475707</v>
+        <v>0.0</v>
       </c>
       <c r="V59" s="1">
-        <v>198058.18446337</v>
+        <v>125766.64285714</v>
       </c>
       <c r="W59" s="2"/>
       <c r="X59" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y59" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z59" s="1"/>
       <c r="AA59">
         <v>0.0</v>
       </c>
       <c r="AB59">
-        <v>7922.0</v>
+        <v>5031.0</v>
       </c>
       <c r="AC59" s="2"/>
       <c r="AD59" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="60" spans="1:31">
@@ -14716,43 +14697,43 @@
         <v>0</v>
       </c>
       <c r="P60" s="6">
-        <v>193792.31587493</v>
+        <v>123058.15384615</v>
       </c>
       <c r="Q60" s="2">
         <v>0.06</v>
       </c>
       <c r="R60" s="1">
-        <v>155033.85269994</v>
+        <v>0</v>
       </c>
       <c r="S60" s="2">
         <v>0.01</v>
       </c>
       <c r="T60" s="1">
-        <v>1550.3385269994</v>
+        <v>0.0</v>
       </c>
       <c r="U60" s="6">
-        <v>-1550.3385269994</v>
+        <v>0.0</v>
       </c>
       <c r="V60" s="1">
-        <v>193792.31587493</v>
+        <v>123058.15384615</v>
       </c>
       <c r="W60" s="2"/>
       <c r="X60" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y60" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z60" s="1"/>
       <c r="AA60">
         <v>0.0</v>
       </c>
       <c r="AB60">
-        <v>7752.0</v>
+        <v>4922.0</v>
       </c>
       <c r="AC60" s="2"/>
       <c r="AD60" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:31">
@@ -14784,43 +14765,43 @@
         <v>0</v>
       </c>
       <c r="P61" s="6">
-        <v>188301.5335918</v>
+        <v>119571.83333333</v>
       </c>
       <c r="Q61" s="2">
         <v>0.06</v>
       </c>
       <c r="R61" s="1">
-        <v>150641.22687344</v>
+        <v>0</v>
       </c>
       <c r="S61" s="2">
         <v>0.01</v>
       </c>
       <c r="T61" s="1">
-        <v>1506.4122687344</v>
+        <v>0.0</v>
       </c>
       <c r="U61" s="6">
-        <v>-1506.4122687344</v>
+        <v>0.0</v>
       </c>
       <c r="V61" s="1">
-        <v>188301.5335918</v>
+        <v>119571.83333333</v>
       </c>
       <c r="W61" s="2"/>
       <c r="X61" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y61" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z61" s="1"/>
       <c r="AA61">
         <v>0.0</v>
       </c>
       <c r="AB61">
-        <v>7532.0</v>
+        <v>4783.0</v>
       </c>
       <c r="AC61" s="2"/>
       <c r="AD61" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="62" spans="1:31">
@@ -14852,43 +14833,43 @@
         <v>0</v>
       </c>
       <c r="P62" s="6">
-        <v>181454.20509755</v>
+        <v>115223.63636364</v>
       </c>
       <c r="Q62" s="2">
         <v>0.06</v>
       </c>
       <c r="R62" s="1">
-        <v>145163.36407804</v>
+        <v>0</v>
       </c>
       <c r="S62" s="2">
         <v>0.01</v>
       </c>
       <c r="T62" s="1">
-        <v>1451.6336407804</v>
+        <v>0.0</v>
       </c>
       <c r="U62" s="6">
-        <v>-1451.6336407804</v>
+        <v>0.0</v>
       </c>
       <c r="V62" s="1">
-        <v>181454.20509755</v>
+        <v>115223.63636364</v>
       </c>
       <c r="W62" s="2"/>
       <c r="X62" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y62" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z62" s="1"/>
       <c r="AA62">
         <v>0.0</v>
       </c>
       <c r="AB62">
-        <v>7258.0</v>
+        <v>4609.0</v>
       </c>
       <c r="AC62" s="2"/>
       <c r="AD62" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="63" spans="1:31">
@@ -14920,43 +14901,43 @@
         <v>0</v>
       </c>
       <c r="P63" s="6">
-        <v>173107.31166307</v>
+        <v>109923.3</v>
       </c>
       <c r="Q63" s="2">
         <v>0.06</v>
       </c>
       <c r="R63" s="1">
-        <v>138485.84933046</v>
+        <v>0</v>
       </c>
       <c r="S63" s="2">
         <v>0.01</v>
       </c>
       <c r="T63" s="1">
-        <v>1384.8584933046</v>
+        <v>0.0</v>
       </c>
       <c r="U63" s="6">
-        <v>-1384.8584933046</v>
+        <v>0.0</v>
       </c>
       <c r="V63" s="1">
-        <v>173107.31166307</v>
+        <v>109923.3</v>
       </c>
       <c r="W63" s="2"/>
       <c r="X63" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y63" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z63" s="1"/>
       <c r="AA63">
         <v>0.0</v>
       </c>
       <c r="AB63">
-        <v>6924.0</v>
+        <v>4397.0</v>
       </c>
       <c r="AC63" s="2"/>
       <c r="AD63" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="64" spans="1:31">
@@ -14988,43 +14969,43 @@
         <v>0</v>
       </c>
       <c r="P64" s="6">
-        <v>163105.55587809</v>
+        <v>103572.44444444</v>
       </c>
       <c r="Q64" s="2">
         <v>0.06</v>
       </c>
       <c r="R64" s="1">
-        <v>130484.44470247</v>
+        <v>0</v>
       </c>
       <c r="S64" s="2">
         <v>0.01</v>
       </c>
       <c r="T64" s="1">
-        <v>1304.8444470247</v>
+        <v>0.0</v>
       </c>
       <c r="U64" s="6">
-        <v>-1304.8444470247</v>
+        <v>0.0</v>
       </c>
       <c r="V64" s="1">
-        <v>163105.55587809</v>
+        <v>103572.44444444</v>
       </c>
       <c r="W64" s="2"/>
       <c r="X64" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y64" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z64" s="1"/>
       <c r="AA64">
         <v>0.0</v>
       </c>
       <c r="AB64">
-        <v>6524.0</v>
+        <v>4143.0</v>
       </c>
       <c r="AC64" s="2"/>
       <c r="AD64" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="65" spans="1:31">
@@ -15056,43 +15037,43 @@
         <v>0</v>
       </c>
       <c r="P65" s="6">
-        <v>151280.40307692</v>
+        <v>96063.625</v>
       </c>
       <c r="Q65" s="2">
         <v>0.06</v>
       </c>
       <c r="R65" s="1">
-        <v>121024.32246154</v>
+        <v>0</v>
       </c>
       <c r="S65" s="2">
         <v>0.01</v>
       </c>
       <c r="T65" s="1">
-        <v>1210.2432246154</v>
+        <v>0.0</v>
       </c>
       <c r="U65" s="6">
-        <v>-1210.2432246154</v>
+        <v>0.0</v>
       </c>
       <c r="V65" s="1">
-        <v>151280.40307692</v>
+        <v>96063.625</v>
       </c>
       <c r="W65" s="2"/>
       <c r="X65" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y65" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z65" s="1"/>
       <c r="AA65">
         <v>0.0</v>
       </c>
       <c r="AB65">
-        <v>6051.0</v>
+        <v>3843.0</v>
       </c>
       <c r="AC65" s="2"/>
       <c r="AD65" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="66" spans="1:31">
@@ -15124,43 +15105,43 @@
         <v>0</v>
       </c>
       <c r="P66" s="6">
-        <v>137449.05193846</v>
+        <v>87280.285714286</v>
       </c>
       <c r="Q66" s="2">
         <v>0.06</v>
       </c>
       <c r="R66" s="1">
-        <v>109959.24155077</v>
+        <v>0</v>
       </c>
       <c r="S66" s="2">
         <v>0.01</v>
       </c>
       <c r="T66" s="1">
-        <v>1099.5924155077</v>
+        <v>0.0</v>
       </c>
       <c r="U66" s="6">
-        <v>-1099.5924155077</v>
+        <v>0.0</v>
       </c>
       <c r="V66" s="1">
-        <v>137449.05193846</v>
+        <v>87280.285714286</v>
       </c>
       <c r="W66" s="2"/>
       <c r="X66" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y66" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z66" s="1"/>
       <c r="AA66">
         <v>0.0</v>
       </c>
       <c r="AB66">
-        <v>5498.0</v>
+        <v>3491.0</v>
       </c>
       <c r="AC66" s="2"/>
       <c r="AD66" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="67" spans="1:31">
@@ -15192,43 +15173,43 @@
         <v>0</v>
       </c>
       <c r="P67" s="6">
-        <v>121413.32921231</v>
+        <v>77097.5</v>
       </c>
       <c r="Q67" s="2">
         <v>0.06</v>
       </c>
       <c r="R67" s="1">
-        <v>97130.663369847</v>
+        <v>0</v>
       </c>
       <c r="S67" s="2">
         <v>0.01</v>
       </c>
       <c r="T67" s="1">
-        <v>971.30663369847</v>
+        <v>0.0</v>
       </c>
       <c r="U67" s="6">
-        <v>-971.30663369847</v>
+        <v>0.0</v>
       </c>
       <c r="V67" s="1">
-        <v>121413.32921231</v>
+        <v>77097.5</v>
       </c>
       <c r="W67" s="2"/>
       <c r="X67" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y67" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z67" s="1"/>
       <c r="AA67">
         <v>0.0</v>
       </c>
       <c r="AB67">
-        <v>4857.0</v>
+        <v>3084.0</v>
       </c>
       <c r="AC67" s="2"/>
       <c r="AD67" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="68" spans="1:31">
@@ -15260,43 +15241,43 @@
         <v>0</v>
       </c>
       <c r="P68" s="6">
-        <v>102958.50317204</v>
+        <v>65378.4</v>
       </c>
       <c r="Q68" s="2">
         <v>0.06</v>
       </c>
       <c r="R68" s="1">
-        <v>82366.802537632</v>
+        <v>0</v>
       </c>
       <c r="S68" s="2">
         <v>0.01</v>
       </c>
       <c r="T68" s="1">
-        <v>823.66802537632</v>
+        <v>0.0</v>
       </c>
       <c r="U68" s="6">
-        <v>-823.66802537632</v>
+        <v>0.0</v>
       </c>
       <c r="V68" s="1">
-        <v>102958.50317204</v>
+        <v>65378.4</v>
       </c>
       <c r="W68" s="2"/>
       <c r="X68" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y68" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z68" s="1"/>
       <c r="AA68">
         <v>0.0</v>
       </c>
       <c r="AB68">
-        <v>4118.0</v>
+        <v>2615.0</v>
       </c>
       <c r="AC68" s="2"/>
       <c r="AD68" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="69" spans="1:31">
@@ -15328,43 +15309,43 @@
         <v>0</v>
       </c>
       <c r="P69" s="6">
-        <v>81852.01002177</v>
+        <v>51975.75</v>
       </c>
       <c r="Q69" s="2">
         <v>0.06</v>
       </c>
       <c r="R69" s="1">
-        <v>65481.608017416</v>
+        <v>0</v>
       </c>
       <c r="S69" s="2">
         <v>0.01</v>
       </c>
       <c r="T69" s="1">
-        <v>654.81608017416</v>
+        <v>0.0</v>
       </c>
       <c r="U69" s="6">
-        <v>-654.81608017416</v>
+        <v>0.0</v>
       </c>
       <c r="V69" s="1">
-        <v>81852.01002177</v>
+        <v>51975.75</v>
       </c>
       <c r="W69" s="2"/>
       <c r="X69" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y69" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z69" s="1"/>
       <c r="AA69">
         <v>0.0</v>
       </c>
       <c r="AB69">
-        <v>3274.0</v>
+        <v>2079.0</v>
       </c>
       <c r="AC69" s="2"/>
       <c r="AD69" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="70" spans="1:31">
@@ -15396,43 +15377,43 @@
         <v>0</v>
       </c>
       <c r="P70" s="6">
-        <v>57842.087082051</v>
+        <v>36729.333333333</v>
       </c>
       <c r="Q70" s="2">
         <v>0.06</v>
       </c>
       <c r="R70" s="1">
-        <v>46273.669665641</v>
+        <v>0</v>
       </c>
       <c r="S70" s="2">
         <v>0.01</v>
       </c>
       <c r="T70" s="1">
-        <v>462.73669665641</v>
+        <v>0.0</v>
       </c>
       <c r="U70" s="6">
-        <v>-462.73669665641</v>
+        <v>0.0</v>
       </c>
       <c r="V70" s="1">
-        <v>57842.087082051</v>
+        <v>36729.333333333</v>
       </c>
       <c r="W70" s="2"/>
       <c r="X70" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y70" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z70" s="1"/>
       <c r="AA70">
         <v>0.0</v>
       </c>
       <c r="AB70">
-        <v>2314.0</v>
+        <v>1469.0</v>
       </c>
       <c r="AC70" s="2"/>
       <c r="AD70" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="71" spans="1:31">
@@ -15464,43 +15445,43 @@
         <v>0</v>
       </c>
       <c r="P71" s="6">
-        <v>30656.306153487</v>
+        <v>19466.5</v>
       </c>
       <c r="Q71" s="2">
         <v>0.06</v>
       </c>
       <c r="R71" s="1">
-        <v>24525.04492279</v>
+        <v>0</v>
       </c>
       <c r="S71" s="2">
         <v>0.01</v>
       </c>
       <c r="T71" s="1">
-        <v>245.2504492279</v>
+        <v>0.0</v>
       </c>
       <c r="U71" s="6">
-        <v>-245.2504492279</v>
+        <v>0.0</v>
       </c>
       <c r="V71" s="1">
-        <v>30656.306153487</v>
+        <v>19466.5</v>
       </c>
       <c r="W71" s="2"/>
       <c r="X71" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y71" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z71" s="1"/>
       <c r="AA71">
         <v>0.0</v>
       </c>
       <c r="AB71">
-        <v>1226.0</v>
+        <v>779.0</v>
       </c>
       <c r="AC71" s="2"/>
       <c r="AD71" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="72" spans="1:31">
@@ -15538,7 +15519,7 @@
         <v>0.06</v>
       </c>
       <c r="R72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S72" s="16"/>
       <c r="T72" s="5">
@@ -15552,10 +15533,10 @@
       </c>
       <c r="W72" s="16"/>
       <c r="X72" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y72" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z72" s="5"/>
       <c r="AA72" s="15">
@@ -15566,7 +15547,7 @@
       </c>
       <c r="AC72" s="16"/>
       <c r="AD72" s="15" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="73" spans="1:31">
@@ -15827,7 +15808,7 @@
         <v>79</v>
       </c>
       <c r="C5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -15993,6 +15974,12 @@
     <row r="38" spans="1:3">
       <c r="A38">
         <v>2022</v>
+      </c>
+      <c r="B38">
+        <v>100.0</v>
+      </c>
+      <c r="C38">
+        <v>100.0</v>
       </c>
     </row>
     <row r="39" spans="1:3">
